--- a/Code/R/PerfSearch_Regression_WEKA_SMOTE217.xlsx
+++ b/Code/R/PerfSearch_Regression_WEKA_SMOTE217.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TenfoldCV" sheetId="1" r:id="rId1"/>
     <sheet name="Jackknife" sheetId="2" r:id="rId2"/>
+    <sheet name="IndependentTest" sheetId="3" r:id="rId3"/>
+    <sheet name="ThresholdTuning" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="16">
   <si>
     <t>Acc
 (All classes)</t>
@@ -45,6 +48,27 @@
   </si>
   <si>
     <t>cost</t>
+  </si>
+  <si>
+    <t>Enrichment</t>
+  </si>
+  <si>
+    <t>Rank %</t>
+  </si>
+  <si>
+    <t>2800/10</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t>2800/1</t>
   </si>
 </sst>
 </file>
@@ -529,7 +553,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -537,6 +561,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -586,6 +613,456 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.890625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.921875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sensitivity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.84615384615384603</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84615384615384603</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76923076923076905</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76923076923076905</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76923076923076905</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69230769230769196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46153846153846201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38461538461538503</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.38461538461538503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Specificity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.90196078431372595</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96078431372549</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98039215686274495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98039215686274495</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98039215686274495</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98039215686274495</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98039215686274495</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.69509522046285599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80693815987933604</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79940221476744</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79940221476744</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79940221476744</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.74538597102194304</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56967138923080396</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57659703955489405</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57659703955489405</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="124499840"/>
+        <c:axId val="124497920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="124499840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124497920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="124497920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124499840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -876,7 +1353,7 @@
   <dimension ref="A1:J163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -913,19 +1390,19 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>2650</v>
+        <v>2800</v>
       </c>
       <c r="C2">
         <v>0.3</v>
       </c>
       <c r="D2">
-        <v>0.95953407377519095</v>
+        <v>0.95828112722716496</v>
       </c>
       <c r="E2">
-        <v>0.58180179712942004</v>
+        <v>0.58926367059003604</v>
       </c>
       <c r="F2">
         <v>0.953917050691244</v>
@@ -945,19 +1422,19 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>2650</v>
+        <v>2800</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.95953407377519095</v>
+        <v>0.95828112722716496</v>
       </c>
       <c r="E3">
-        <v>0.58180179712941604</v>
+        <v>0.58926367059004203</v>
       </c>
       <c r="F3">
         <v>0.953917050691244</v>
@@ -977,19 +1454,19 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>2650</v>
+        <v>2800</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>0.95953407377519095</v>
+        <v>0.95828112722716496</v>
       </c>
       <c r="E4">
-        <v>0.58180179712954005</v>
+        <v>0.58926367059000595</v>
       </c>
       <c r="F4">
         <v>0.953917050691244</v>
@@ -1009,19 +1486,19 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>2650</v>
+        <v>2800</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5">
-        <v>0.95953407377519095</v>
+        <v>0.95828112722716496</v>
       </c>
       <c r="E5">
-        <v>0.58180179712934099</v>
+        <v>0.58926367059001195</v>
       </c>
       <c r="F5">
         <v>0.953917050691244</v>
@@ -1041,19 +1518,19 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>2650</v>
+        <v>2800</v>
       </c>
       <c r="C6">
         <v>30</v>
       </c>
       <c r="D6">
-        <v>0.95953407377519095</v>
+        <v>0.95828112722716496</v>
       </c>
       <c r="E6">
-        <v>0.58180179713087898</v>
+        <v>0.58926367059025897</v>
       </c>
       <c r="F6">
         <v>0.953917050691244</v>
@@ -1073,19 +1550,19 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>2650</v>
+        <v>2800</v>
       </c>
       <c r="C7">
         <v>100</v>
       </c>
       <c r="D7">
-        <v>0.95953407377519095</v>
+        <v>0.95828112722716496</v>
       </c>
       <c r="E7">
-        <v>0.58180179712840596</v>
+        <v>0.58926367058904505</v>
       </c>
       <c r="F7">
         <v>0.953917050691244</v>
@@ -1105,586 +1582,568 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>2500</v>
+        <v>2750</v>
       </c>
       <c r="C8">
         <v>0.3</v>
       </c>
       <c r="D8">
-        <v>0.95855720019537405</v>
+        <v>0.95859967295971404</v>
       </c>
       <c r="E8">
-        <v>0.57085256376688098</v>
+        <v>0.58349372358511298</v>
       </c>
       <c r="F8">
-        <v>0.953917050691244</v>
+        <v>0.95161290322580605</v>
       </c>
       <c r="G8">
-        <v>0.953917050691244</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="H8">
         <v>0.953917050691244</v>
       </c>
       <c r="I8">
-        <v>0.90783410138248799</v>
-      </c>
-      <c r="J8" t="s">
-        <v>6</v>
+        <v>0.90323539722857404</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>2500</v>
+        <v>2750</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.95855720019537405</v>
+        <v>0.95859967295971404</v>
       </c>
       <c r="E9">
-        <v>0.57085256376688998</v>
+        <v>0.58349372358509299</v>
       </c>
       <c r="F9">
-        <v>0.953917050691244</v>
+        <v>0.95161290322580605</v>
       </c>
       <c r="G9">
-        <v>0.953917050691244</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="H9">
         <v>0.953917050691244</v>
       </c>
       <c r="I9">
-        <v>0.90783410138248799</v>
-      </c>
-      <c r="J9" t="s">
-        <v>6</v>
+        <v>0.90323539722857404</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>2500</v>
+        <v>2750</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
-        <v>0.95855720019537405</v>
+        <v>0.95859967295971404</v>
       </c>
       <c r="E10">
-        <v>0.57085256376692295</v>
+        <v>0.58349372358509</v>
       </c>
       <c r="F10">
-        <v>0.953917050691244</v>
+        <v>0.95161290322580605</v>
       </c>
       <c r="G10">
-        <v>0.953917050691244</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="H10">
         <v>0.953917050691244</v>
       </c>
       <c r="I10">
-        <v>0.90783410138248799</v>
-      </c>
-      <c r="J10" t="s">
-        <v>6</v>
+        <v>0.90323539722857404</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>2500</v>
+        <v>2750</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11">
-        <v>0.95855720019537405</v>
+        <v>0.95859967295971404</v>
       </c>
       <c r="E11">
-        <v>0.57085256376694504</v>
+        <v>0.58349372358514195</v>
       </c>
       <c r="F11">
-        <v>0.953917050691244</v>
+        <v>0.95161290322580605</v>
       </c>
       <c r="G11">
-        <v>0.953917050691244</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="H11">
         <v>0.953917050691244</v>
       </c>
       <c r="I11">
-        <v>0.90783410138248799</v>
-      </c>
-      <c r="J11" t="s">
-        <v>6</v>
+        <v>0.90323539722857404</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>2500</v>
+        <v>2750</v>
       </c>
       <c r="C12">
         <v>30</v>
       </c>
       <c r="D12">
-        <v>0.95855720019537405</v>
+        <v>0.95859967295971404</v>
       </c>
       <c r="E12">
-        <v>0.57085256376883997</v>
+        <v>0.58349372358505702</v>
       </c>
       <c r="F12">
-        <v>0.953917050691244</v>
+        <v>0.95161290322580605</v>
       </c>
       <c r="G12">
-        <v>0.953917050691244</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="H12">
         <v>0.953917050691244</v>
       </c>
       <c r="I12">
-        <v>0.90783410138248799</v>
-      </c>
-      <c r="J12" t="s">
-        <v>6</v>
+        <v>0.90323539722857404</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>2500</v>
+        <v>2750</v>
       </c>
       <c r="C13">
         <v>100</v>
       </c>
       <c r="D13">
-        <v>0.95855720019537405</v>
+        <v>0.95859967295971404</v>
       </c>
       <c r="E13">
-        <v>0.57085256376473603</v>
+        <v>0.583493723585913</v>
       </c>
       <c r="F13">
-        <v>0.953917050691244</v>
+        <v>0.95161290322580605</v>
       </c>
       <c r="G13">
-        <v>0.953917050691244</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="H13">
         <v>0.953917050691244</v>
       </c>
       <c r="I13">
-        <v>0.90783410138248799</v>
-      </c>
-      <c r="J13" t="s">
-        <v>6</v>
+        <v>0.90323539722857404</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="C14">
         <v>0.3</v>
       </c>
       <c r="D14">
-        <v>0.95828112722716496</v>
+        <v>0.95806876340546498</v>
       </c>
       <c r="E14">
-        <v>0.58926367059003604</v>
+        <v>0.61635626101282903</v>
       </c>
       <c r="F14">
-        <v>0.953917050691244</v>
+        <v>0.95161290322580605</v>
       </c>
       <c r="G14">
-        <v>0.953917050691244</v>
+        <v>0.95852534562212</v>
       </c>
       <c r="H14">
-        <v>0.953917050691244</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="I14">
-        <v>0.90783410138248799</v>
-      </c>
-      <c r="J14" t="s">
-        <v>6</v>
+        <v>0.90331213444439795</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.95828112722716496</v>
+        <v>0.95806876340546498</v>
       </c>
       <c r="E15">
-        <v>0.58926367059004203</v>
+        <v>0.61635626101282304</v>
       </c>
       <c r="F15">
-        <v>0.953917050691244</v>
+        <v>0.95161290322580605</v>
       </c>
       <c r="G15">
-        <v>0.953917050691244</v>
+        <v>0.95852534562212</v>
       </c>
       <c r="H15">
-        <v>0.953917050691244</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="I15">
-        <v>0.90783410138248799</v>
-      </c>
-      <c r="J15" t="s">
-        <v>6</v>
+        <v>0.90331213444439795</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16">
-        <v>0.95828112722716496</v>
+        <v>0.95806876340546498</v>
       </c>
       <c r="E16">
-        <v>0.58926367059000595</v>
+        <v>0.61635626101304397</v>
       </c>
       <c r="F16">
-        <v>0.953917050691244</v>
+        <v>0.95161290322580605</v>
       </c>
       <c r="G16">
-        <v>0.953917050691244</v>
+        <v>0.95852534562212</v>
       </c>
       <c r="H16">
-        <v>0.953917050691244</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="I16">
-        <v>0.90783410138248799</v>
-      </c>
-      <c r="J16" t="s">
-        <v>6</v>
+        <v>0.90331213444439795</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="C17">
         <v>10</v>
       </c>
       <c r="D17">
-        <v>0.95828112722716496</v>
+        <v>0.95806876340546498</v>
       </c>
       <c r="E17">
-        <v>0.58926367059001195</v>
+        <v>0.61635626101220597</v>
       </c>
       <c r="F17">
-        <v>0.953917050691244</v>
+        <v>0.95161290322580605</v>
       </c>
       <c r="G17">
-        <v>0.953917050691244</v>
+        <v>0.95852534562212</v>
       </c>
       <c r="H17">
-        <v>0.953917050691244</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="I17">
-        <v>0.90783410138248799</v>
-      </c>
-      <c r="J17" t="s">
-        <v>6</v>
+        <v>0.90331213444439795</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="C18">
         <v>30</v>
       </c>
       <c r="D18">
-        <v>0.95828112722716496</v>
+        <v>0.95806876340546498</v>
       </c>
       <c r="E18">
-        <v>0.58926367059025897</v>
+        <v>0.61635626101629304</v>
       </c>
       <c r="F18">
-        <v>0.953917050691244</v>
+        <v>0.95161290322580605</v>
       </c>
       <c r="G18">
-        <v>0.953917050691244</v>
+        <v>0.95852534562212</v>
       </c>
       <c r="H18">
-        <v>0.953917050691244</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="I18">
-        <v>0.90783410138248799</v>
-      </c>
-      <c r="J18" t="s">
-        <v>6</v>
+        <v>0.90331213444439795</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="C19">
         <v>100</v>
       </c>
       <c r="D19">
-        <v>0.95828112722716496</v>
+        <v>0.95806876340546498</v>
       </c>
       <c r="E19">
-        <v>0.58926367058904505</v>
+        <v>0.61635626099810903</v>
       </c>
       <c r="F19">
-        <v>0.953917050691244</v>
+        <v>0.95161290322580605</v>
       </c>
       <c r="G19">
-        <v>0.953917050691244</v>
+        <v>0.95852534562212</v>
       </c>
       <c r="H19">
-        <v>0.953917050691244</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="I19">
-        <v>0.90783410138248799</v>
-      </c>
-      <c r="J19" t="s">
-        <v>6</v>
+        <v>0.90331213444439795</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>2600</v>
+        <v>2650</v>
       </c>
       <c r="C20">
         <v>0.3</v>
       </c>
       <c r="D20">
-        <v>0.95972520121472005</v>
+        <v>0.95953407377519095</v>
       </c>
       <c r="E20">
-        <v>0.53988164991923004</v>
+        <v>0.58180179712942004</v>
       </c>
       <c r="F20">
-        <v>0.95161290322580605</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="G20">
-        <v>0.94470046082949299</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="H20">
-        <v>0.95852534562212</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="I20">
-        <v>0.90331213444439795</v>
+        <v>0.90783410138248799</v>
+      </c>
+      <c r="J20" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>2600</v>
+        <v>2650</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.95972520121472005</v>
+        <v>0.95953407377519095</v>
       </c>
       <c r="E21">
-        <v>0.53988164991924603</v>
+        <v>0.58180179712941604</v>
       </c>
       <c r="F21">
-        <v>0.95161290322580605</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="G21">
-        <v>0.94470046082949299</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="H21">
-        <v>0.95852534562212</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="I21">
-        <v>0.90331213444439795</v>
+        <v>0.90783410138248799</v>
+      </c>
+      <c r="J21" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>2600</v>
+        <v>2650</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="D22">
-        <v>0.95972520121472005</v>
+        <v>0.95953407377519095</v>
       </c>
       <c r="E22">
-        <v>0.53988164991918197</v>
+        <v>0.58180179712954005</v>
       </c>
       <c r="F22">
-        <v>0.95161290322580605</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="G22">
-        <v>0.94470046082949299</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="H22">
-        <v>0.95852534562212</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="I22">
-        <v>0.90331213444439795</v>
+        <v>0.90783410138248799</v>
+      </c>
+      <c r="J22" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>2600</v>
+        <v>2650</v>
       </c>
       <c r="C23">
         <v>10</v>
       </c>
       <c r="D23">
-        <v>0.95972520121472005</v>
+        <v>0.95953407377519095</v>
       </c>
       <c r="E23">
-        <v>0.53988164991932397</v>
+        <v>0.58180179712934099</v>
       </c>
       <c r="F23">
-        <v>0.95161290322580605</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="G23">
-        <v>0.94470046082949299</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="H23">
-        <v>0.95852534562212</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="I23">
-        <v>0.90331213444439795</v>
+        <v>0.90783410138248799</v>
+      </c>
+      <c r="J23" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>2600</v>
+        <v>2650</v>
       </c>
       <c r="C24">
         <v>30</v>
       </c>
       <c r="D24">
-        <v>0.95972520121472005</v>
+        <v>0.95953407377519095</v>
       </c>
       <c r="E24">
-        <v>0.53988164991955101</v>
+        <v>0.58180179713087898</v>
       </c>
       <c r="F24">
-        <v>0.95161290322580605</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="G24">
-        <v>0.94470046082949299</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="H24">
-        <v>0.95852534562212</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="I24">
-        <v>0.90331213444439795</v>
+        <v>0.90783410138248799</v>
+      </c>
+      <c r="J24" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>2600</v>
+        <v>2650</v>
       </c>
       <c r="C25">
         <v>100</v>
       </c>
       <c r="D25">
-        <v>0.95972520121472005</v>
+        <v>0.95953407377519095</v>
       </c>
       <c r="E25">
-        <v>0.53988164992023402</v>
+        <v>0.58180179712840596</v>
       </c>
       <c r="F25">
-        <v>0.95161290322580605</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="G25">
-        <v>0.94470046082949299</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="H25">
-        <v>0.95852534562212</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="I25">
-        <v>0.90331213444439795</v>
+        <v>0.90783410138248799</v>
+      </c>
+      <c r="J25" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="C26">
         <v>0.3</v>
       </c>
       <c r="D26">
-        <v>0.95806876340546498</v>
+        <v>0.95972520121472005</v>
       </c>
       <c r="E26">
-        <v>0.61635626101282903</v>
+        <v>0.53988164991923004</v>
       </c>
       <c r="F26">
         <v>0.95161290322580605</v>
       </c>
       <c r="G26">
+        <v>0.94470046082949299</v>
+      </c>
+      <c r="H26">
         <v>0.95852534562212</v>
-      </c>
-      <c r="H26">
-        <v>0.94470046082949299</v>
       </c>
       <c r="I26">
         <v>0.90331213444439795</v>
@@ -1692,28 +2151,28 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>0.95806876340546498</v>
+        <v>0.95972520121472005</v>
       </c>
       <c r="E27">
-        <v>0.61635626101282304</v>
+        <v>0.53988164991924603</v>
       </c>
       <c r="F27">
         <v>0.95161290322580605</v>
       </c>
       <c r="G27">
+        <v>0.94470046082949299</v>
+      </c>
+      <c r="H27">
         <v>0.95852534562212</v>
-      </c>
-      <c r="H27">
-        <v>0.94470046082949299</v>
       </c>
       <c r="I27">
         <v>0.90331213444439795</v>
@@ -1721,28 +2180,28 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
       <c r="D28">
-        <v>0.95806876340546498</v>
+        <v>0.95972520121472005</v>
       </c>
       <c r="E28">
-        <v>0.61635626101304397</v>
+        <v>0.53988164991918197</v>
       </c>
       <c r="F28">
         <v>0.95161290322580605</v>
       </c>
       <c r="G28">
+        <v>0.94470046082949299</v>
+      </c>
+      <c r="H28">
         <v>0.95852534562212</v>
-      </c>
-      <c r="H28">
-        <v>0.94470046082949299</v>
       </c>
       <c r="I28">
         <v>0.90331213444439795</v>
@@ -1750,28 +2209,28 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="C29">
         <v>10</v>
       </c>
       <c r="D29">
-        <v>0.95806876340546498</v>
+        <v>0.95972520121472005</v>
       </c>
       <c r="E29">
-        <v>0.61635626101220597</v>
+        <v>0.53988164991932397</v>
       </c>
       <c r="F29">
         <v>0.95161290322580605</v>
       </c>
       <c r="G29">
+        <v>0.94470046082949299</v>
+      </c>
+      <c r="H29">
         <v>0.95852534562212</v>
-      </c>
-      <c r="H29">
-        <v>0.94470046082949299</v>
       </c>
       <c r="I29">
         <v>0.90331213444439795</v>
@@ -1779,28 +2238,28 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="C30">
         <v>30</v>
       </c>
       <c r="D30">
-        <v>0.95806876340546498</v>
+        <v>0.95972520121472005</v>
       </c>
       <c r="E30">
-        <v>0.61635626101629304</v>
+        <v>0.53988164991955101</v>
       </c>
       <c r="F30">
         <v>0.95161290322580605</v>
       </c>
       <c r="G30">
+        <v>0.94470046082949299</v>
+      </c>
+      <c r="H30">
         <v>0.95852534562212</v>
-      </c>
-      <c r="H30">
-        <v>0.94470046082949299</v>
       </c>
       <c r="I30">
         <v>0.90331213444439795</v>
@@ -1808,28 +2267,28 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="C31">
         <v>100</v>
       </c>
       <c r="D31">
-        <v>0.95806876340546498</v>
+        <v>0.95972520121472005</v>
       </c>
       <c r="E31">
-        <v>0.61635626099810903</v>
+        <v>0.53988164992023402</v>
       </c>
       <c r="F31">
         <v>0.95161290322580605</v>
       </c>
       <c r="G31">
+        <v>0.94470046082949299</v>
+      </c>
+      <c r="H31">
         <v>0.95852534562212</v>
-      </c>
-      <c r="H31">
-        <v>0.94470046082949299</v>
       </c>
       <c r="I31">
         <v>0.90331213444439795</v>
@@ -1837,367 +2296,385 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>2400</v>
+        <v>2550</v>
       </c>
       <c r="C32">
         <v>0.3</v>
       </c>
       <c r="D32">
-        <v>0.95717683535432796</v>
+        <v>0.95925800080698198</v>
       </c>
       <c r="E32">
-        <v>0.54561952188697505</v>
+        <v>0.57301725696791805</v>
       </c>
       <c r="F32">
         <v>0.95161290322580605</v>
       </c>
       <c r="G32">
-        <v>0.94470046082949299</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="H32">
-        <v>0.95852534562212</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="I32">
-        <v>0.90331213444439795</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.90323539722857404</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>2400</v>
+        <v>2550</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33">
-        <v>0.95717683535432796</v>
+        <v>0.95925800080698198</v>
       </c>
       <c r="E33">
-        <v>0.54561952188697604</v>
+        <v>0.57301725696794503</v>
       </c>
       <c r="F33">
         <v>0.95161290322580605</v>
       </c>
       <c r="G33">
-        <v>0.94470046082949299</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="H33">
-        <v>0.95852534562212</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="I33">
-        <v>0.90331213444439795</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.90323539722857404</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>2400</v>
+        <v>2550</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
       <c r="D34">
-        <v>0.95717683535432796</v>
+        <v>0.95925800080698198</v>
       </c>
       <c r="E34">
-        <v>0.54561952188693297</v>
+        <v>0.57301725696804495</v>
       </c>
       <c r="F34">
         <v>0.95161290322580605</v>
       </c>
       <c r="G34">
-        <v>0.94470046082949299</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="H34">
-        <v>0.95852534562212</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="I34">
-        <v>0.90331213444439795</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>0.90323539722857404</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>2400</v>
+        <v>2550</v>
       </c>
       <c r="C35">
         <v>10</v>
       </c>
       <c r="D35">
-        <v>0.95717683535432796</v>
+        <v>0.95925800080698198</v>
       </c>
       <c r="E35">
-        <v>0.54561952188701901</v>
+        <v>0.57301725696778905</v>
       </c>
       <c r="F35">
         <v>0.95161290322580605</v>
       </c>
       <c r="G35">
-        <v>0.94470046082949299</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="H35">
-        <v>0.95852534562212</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="I35">
-        <v>0.90331213444439795</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.90323539722857404</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>2400</v>
+        <v>2550</v>
       </c>
       <c r="C36">
         <v>30</v>
       </c>
       <c r="D36">
-        <v>0.95717683535432796</v>
+        <v>0.95925800080698198</v>
       </c>
       <c r="E36">
-        <v>0.54561952188659602</v>
+        <v>0.57301725696712602</v>
       </c>
       <c r="F36">
         <v>0.95161290322580605</v>
       </c>
       <c r="G36">
-        <v>0.94470046082949299</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="H36">
-        <v>0.95852534562212</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="I36">
-        <v>0.90331213444439795</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.90323539722857404</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>2400</v>
+        <v>2550</v>
       </c>
       <c r="C37">
         <v>100</v>
       </c>
       <c r="D37">
-        <v>0.95717683535432796</v>
+        <v>0.95925800080698198</v>
       </c>
       <c r="E37">
-        <v>0.54561952188796103</v>
+        <v>0.573017256959935</v>
       </c>
       <c r="F37">
         <v>0.95161290322580605</v>
       </c>
       <c r="G37">
-        <v>0.94470046082949299</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="H37">
-        <v>0.95852534562212</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="I37">
-        <v>0.90331213444439795</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>0.90323539722857404</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>2550</v>
+        <v>2500</v>
       </c>
       <c r="C38">
         <v>0.3</v>
       </c>
       <c r="D38">
-        <v>0.95925800080698198</v>
+        <v>0.95855720019537405</v>
       </c>
       <c r="E38">
-        <v>0.57301725696791805</v>
+        <v>0.57085256376688098</v>
       </c>
       <c r="F38">
-        <v>0.95161290322580605</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="G38">
-        <v>0.94930875576036899</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="H38">
         <v>0.953917050691244</v>
       </c>
       <c r="I38">
-        <v>0.90323539722857404</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.90783410138248799</v>
+      </c>
+      <c r="J38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>2550</v>
+        <v>2500</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39">
-        <v>0.95925800080698198</v>
+        <v>0.95855720019537405</v>
       </c>
       <c r="E39">
-        <v>0.57301725696794503</v>
+        <v>0.57085256376688998</v>
       </c>
       <c r="F39">
-        <v>0.95161290322580605</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="G39">
-        <v>0.94930875576036899</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="H39">
         <v>0.953917050691244</v>
       </c>
       <c r="I39">
-        <v>0.90323539722857404</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.90783410138248799</v>
+      </c>
+      <c r="J39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>2550</v>
+        <v>2500</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
       <c r="D40">
-        <v>0.95925800080698198</v>
+        <v>0.95855720019537405</v>
       </c>
       <c r="E40">
-        <v>0.57301725696804495</v>
+        <v>0.57085256376692295</v>
       </c>
       <c r="F40">
-        <v>0.95161290322580605</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="G40">
-        <v>0.94930875576036899</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="H40">
         <v>0.953917050691244</v>
       </c>
       <c r="I40">
-        <v>0.90323539722857404</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>0.90783410138248799</v>
+      </c>
+      <c r="J40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>2550</v>
+        <v>2500</v>
       </c>
       <c r="C41">
         <v>10</v>
       </c>
       <c r="D41">
-        <v>0.95925800080698198</v>
+        <v>0.95855720019537405</v>
       </c>
       <c r="E41">
-        <v>0.57301725696778905</v>
+        <v>0.57085256376694504</v>
       </c>
       <c r="F41">
-        <v>0.95161290322580605</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="G41">
-        <v>0.94930875576036899</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="H41">
         <v>0.953917050691244</v>
       </c>
       <c r="I41">
-        <v>0.90323539722857404</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0.90783410138248799</v>
+      </c>
+      <c r="J41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>2550</v>
+        <v>2500</v>
       </c>
       <c r="C42">
         <v>30</v>
       </c>
       <c r="D42">
-        <v>0.95925800080698198</v>
+        <v>0.95855720019537405</v>
       </c>
       <c r="E42">
-        <v>0.57301725696712602</v>
+        <v>0.57085256376883997</v>
       </c>
       <c r="F42">
-        <v>0.95161290322580605</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="G42">
-        <v>0.94930875576036899</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="H42">
         <v>0.953917050691244</v>
       </c>
       <c r="I42">
-        <v>0.90323539722857404</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>0.90783410138248799</v>
+      </c>
+      <c r="J42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>2550</v>
+        <v>2500</v>
       </c>
       <c r="C43">
         <v>100</v>
       </c>
       <c r="D43">
-        <v>0.95925800080698198</v>
+        <v>0.95855720019537405</v>
       </c>
       <c r="E43">
-        <v>0.573017256959935</v>
+        <v>0.57085256376473603</v>
       </c>
       <c r="F43">
-        <v>0.95161290322580605</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="G43">
-        <v>0.94930875576036899</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="H43">
         <v>0.953917050691244</v>
       </c>
       <c r="I43">
-        <v>0.90323539722857404</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.90783410138248799</v>
+      </c>
+      <c r="J43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>2750</v>
+        <v>2450</v>
       </c>
       <c r="C44">
         <v>0.3</v>
       </c>
       <c r="D44">
-        <v>0.95859967295971404</v>
+        <v>0.95738919917602805</v>
       </c>
       <c r="E44">
-        <v>0.58349372358511298</v>
+        <v>0.55626625028462895</v>
       </c>
       <c r="F44">
         <v>0.95161290322580605</v>
@@ -2212,21 +2689,21 @@
         <v>0.90323539722857404</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:10">
       <c r="A45">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>2750</v>
+        <v>2450</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45">
-        <v>0.95859967295971404</v>
+        <v>0.95738919917602805</v>
       </c>
       <c r="E45">
-        <v>0.58349372358509299</v>
+        <v>0.55626625028464904</v>
       </c>
       <c r="F45">
         <v>0.95161290322580605</v>
@@ -2241,21 +2718,21 @@
         <v>0.90323539722857404</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:10">
       <c r="A46">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>2750</v>
+        <v>2450</v>
       </c>
       <c r="C46">
         <v>3</v>
       </c>
       <c r="D46">
-        <v>0.95859967295971404</v>
+        <v>0.95738919917602805</v>
       </c>
       <c r="E46">
-        <v>0.58349372358509</v>
+        <v>0.55626625028449395</v>
       </c>
       <c r="F46">
         <v>0.95161290322580605</v>
@@ -2270,21 +2747,21 @@
         <v>0.90323539722857404</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:10">
       <c r="A47">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>2750</v>
+        <v>2450</v>
       </c>
       <c r="C47">
         <v>10</v>
       </c>
       <c r="D47">
-        <v>0.95859967295971404</v>
+        <v>0.95738919917602805</v>
       </c>
       <c r="E47">
-        <v>0.58349372358514195</v>
+        <v>0.55626625028534604</v>
       </c>
       <c r="F47">
         <v>0.95161290322580605</v>
@@ -2299,21 +2776,21 @@
         <v>0.90323539722857404</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:10">
       <c r="A48">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>2750</v>
+        <v>2450</v>
       </c>
       <c r="C48">
         <v>30</v>
       </c>
       <c r="D48">
-        <v>0.95859967295971404</v>
+        <v>0.95738919917602805</v>
       </c>
       <c r="E48">
-        <v>0.58349372358505702</v>
+        <v>0.55626625028249499</v>
       </c>
       <c r="F48">
         <v>0.95161290322580605</v>
@@ -2330,19 +2807,19 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>2750</v>
+        <v>2450</v>
       </c>
       <c r="C49">
         <v>100</v>
       </c>
       <c r="D49">
-        <v>0.95859967295971404</v>
+        <v>0.95738919917602805</v>
       </c>
       <c r="E49">
-        <v>0.583493723585913</v>
+        <v>0.55626625029403498</v>
       </c>
       <c r="F49">
         <v>0.95161290322580605</v>
@@ -2359,193 +2836,193 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>2450</v>
+        <v>2400</v>
       </c>
       <c r="C50">
         <v>0.3</v>
       </c>
       <c r="D50">
-        <v>0.95738919917602805</v>
+        <v>0.95717683535432796</v>
       </c>
       <c r="E50">
-        <v>0.55626625028462895</v>
+        <v>0.54561952188697505</v>
       </c>
       <c r="F50">
         <v>0.95161290322580605</v>
       </c>
       <c r="G50">
-        <v>0.94930875576036899</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="H50">
-        <v>0.953917050691244</v>
+        <v>0.95852534562212</v>
       </c>
       <c r="I50">
-        <v>0.90323539722857404</v>
+        <v>0.90331213444439795</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>2450</v>
+        <v>2400</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51">
-        <v>0.95738919917602805</v>
+        <v>0.95717683535432796</v>
       </c>
       <c r="E51">
-        <v>0.55626625028464904</v>
+        <v>0.54561952188697604</v>
       </c>
       <c r="F51">
         <v>0.95161290322580605</v>
       </c>
       <c r="G51">
-        <v>0.94930875576036899</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="H51">
-        <v>0.953917050691244</v>
+        <v>0.95852534562212</v>
       </c>
       <c r="I51">
-        <v>0.90323539722857404</v>
+        <v>0.90331213444439795</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>2450</v>
+        <v>2400</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
       <c r="D52">
-        <v>0.95738919917602805</v>
+        <v>0.95717683535432796</v>
       </c>
       <c r="E52">
-        <v>0.55626625028449395</v>
+        <v>0.54561952188693297</v>
       </c>
       <c r="F52">
         <v>0.95161290322580605</v>
       </c>
       <c r="G52">
-        <v>0.94930875576036899</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="H52">
-        <v>0.953917050691244</v>
+        <v>0.95852534562212</v>
       </c>
       <c r="I52">
-        <v>0.90323539722857404</v>
+        <v>0.90331213444439795</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B53">
-        <v>2450</v>
+        <v>2400</v>
       </c>
       <c r="C53">
         <v>10</v>
       </c>
       <c r="D53">
-        <v>0.95738919917602805</v>
+        <v>0.95717683535432796</v>
       </c>
       <c r="E53">
-        <v>0.55626625028534604</v>
+        <v>0.54561952188701901</v>
       </c>
       <c r="F53">
         <v>0.95161290322580605</v>
       </c>
       <c r="G53">
-        <v>0.94930875576036899</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="H53">
-        <v>0.953917050691244</v>
+        <v>0.95852534562212</v>
       </c>
       <c r="I53">
-        <v>0.90323539722857404</v>
+        <v>0.90331213444439795</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B54">
-        <v>2450</v>
+        <v>2400</v>
       </c>
       <c r="C54">
         <v>30</v>
       </c>
       <c r="D54">
-        <v>0.95738919917602805</v>
+        <v>0.95717683535432796</v>
       </c>
       <c r="E54">
-        <v>0.55626625028249499</v>
+        <v>0.54561952188659602</v>
       </c>
       <c r="F54">
         <v>0.95161290322580605</v>
       </c>
       <c r="G54">
-        <v>0.94930875576036899</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="H54">
-        <v>0.953917050691244</v>
+        <v>0.95852534562212</v>
       </c>
       <c r="I54">
-        <v>0.90323539722857404</v>
+        <v>0.90331213444439795</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B55">
-        <v>2450</v>
+        <v>2400</v>
       </c>
       <c r="C55">
         <v>100</v>
       </c>
       <c r="D55">
-        <v>0.95738919917602805</v>
+        <v>0.95717683535432796</v>
       </c>
       <c r="E55">
-        <v>0.55626625029403498</v>
+        <v>0.54561952188796103</v>
       </c>
       <c r="F55">
         <v>0.95161290322580605</v>
       </c>
       <c r="G55">
-        <v>0.94930875576036899</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="H55">
-        <v>0.953917050691244</v>
+        <v>0.95852534562212</v>
       </c>
       <c r="I55">
-        <v>0.90323539722857404</v>
+        <v>0.90331213444439795</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B56">
-        <v>2300</v>
+        <v>2350</v>
       </c>
       <c r="C56">
         <v>0.3</v>
       </c>
       <c r="D56">
-        <v>0.95798381787678599</v>
+        <v>0.95743167194036805</v>
       </c>
       <c r="E56">
-        <v>0.523092533642604</v>
+        <v>0.54005129139253305</v>
       </c>
       <c r="F56">
         <v>0.94930875576036899</v>
@@ -2562,19 +3039,19 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B57">
-        <v>2300</v>
+        <v>2350</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57">
-        <v>0.95798381787678599</v>
+        <v>0.95743167194036805</v>
       </c>
       <c r="E57">
-        <v>0.52309253364257202</v>
+        <v>0.54005129139249497</v>
       </c>
       <c r="F57">
         <v>0.94930875576036899</v>
@@ -2591,19 +3068,19 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B58">
-        <v>2300</v>
+        <v>2350</v>
       </c>
       <c r="C58">
         <v>3</v>
       </c>
       <c r="D58">
-        <v>0.95798381787678599</v>
+        <v>0.95743167194036805</v>
       </c>
       <c r="E58">
-        <v>0.52309253364280905</v>
+        <v>0.54005129139250996</v>
       </c>
       <c r="F58">
         <v>0.94930875576036899</v>
@@ -2620,19 +3097,19 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>2300</v>
+        <v>2350</v>
       </c>
       <c r="C59">
         <v>10</v>
       </c>
       <c r="D59">
-        <v>0.95798381787678599</v>
+        <v>0.95743167194036805</v>
       </c>
       <c r="E59">
-        <v>0.52309253364306896</v>
+        <v>0.54005129139202501</v>
       </c>
       <c r="F59">
         <v>0.94930875576036899</v>
@@ -2649,19 +3126,19 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B60">
-        <v>2300</v>
+        <v>2350</v>
       </c>
       <c r="C60">
         <v>30</v>
       </c>
       <c r="D60">
-        <v>0.95798381787678599</v>
+        <v>0.95743167194036805</v>
       </c>
       <c r="E60">
-        <v>0.52309253364258201</v>
+        <v>0.54005129139368602</v>
       </c>
       <c r="F60">
         <v>0.94930875576036899</v>
@@ -2678,19 +3155,19 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B61">
-        <v>2300</v>
+        <v>2350</v>
       </c>
       <c r="C61">
         <v>100</v>
       </c>
       <c r="D61">
-        <v>0.95798381787678599</v>
+        <v>0.95743167194036805</v>
       </c>
       <c r="E61">
-        <v>0.52309253364036401</v>
+        <v>0.54005129139541397</v>
       </c>
       <c r="F61">
         <v>0.94930875576036899</v>
@@ -2707,19 +3184,19 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B62">
-        <v>2350</v>
+        <v>2300</v>
       </c>
       <c r="C62">
         <v>0.3</v>
       </c>
       <c r="D62">
-        <v>0.95743167194036805</v>
+        <v>0.95798381787678599</v>
       </c>
       <c r="E62">
-        <v>0.54005129139253305</v>
+        <v>0.523092533642604</v>
       </c>
       <c r="F62">
         <v>0.94930875576036899</v>
@@ -2736,19 +3213,19 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B63">
-        <v>2350</v>
+        <v>2300</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63">
-        <v>0.95743167194036805</v>
+        <v>0.95798381787678599</v>
       </c>
       <c r="E63">
-        <v>0.54005129139249497</v>
+        <v>0.52309253364257202</v>
       </c>
       <c r="F63">
         <v>0.94930875576036899</v>
@@ -2765,19 +3242,19 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B64">
-        <v>2350</v>
+        <v>2300</v>
       </c>
       <c r="C64">
         <v>3</v>
       </c>
       <c r="D64">
-        <v>0.95743167194036805</v>
+        <v>0.95798381787678599</v>
       </c>
       <c r="E64">
-        <v>0.54005129139250996</v>
+        <v>0.52309253364280905</v>
       </c>
       <c r="F64">
         <v>0.94930875576036899</v>
@@ -2794,19 +3271,19 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B65">
-        <v>2350</v>
+        <v>2300</v>
       </c>
       <c r="C65">
         <v>10</v>
       </c>
       <c r="D65">
-        <v>0.95743167194036805</v>
+        <v>0.95798381787678599</v>
       </c>
       <c r="E65">
-        <v>0.54005129139202501</v>
+        <v>0.52309253364306896</v>
       </c>
       <c r="F65">
         <v>0.94930875576036899</v>
@@ -2823,19 +3300,19 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B66">
-        <v>2350</v>
+        <v>2300</v>
       </c>
       <c r="C66">
         <v>30</v>
       </c>
       <c r="D66">
-        <v>0.95743167194036805</v>
+        <v>0.95798381787678599</v>
       </c>
       <c r="E66">
-        <v>0.54005129139368602</v>
+        <v>0.52309253364258201</v>
       </c>
       <c r="F66">
         <v>0.94930875576036899</v>
@@ -2852,19 +3329,19 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B67">
-        <v>2350</v>
+        <v>2300</v>
       </c>
       <c r="C67">
         <v>100</v>
       </c>
       <c r="D67">
-        <v>0.95743167194036805</v>
+        <v>0.95798381787678599</v>
       </c>
       <c r="E67">
-        <v>0.54005129139541397</v>
+        <v>0.52309253364036401</v>
       </c>
       <c r="F67">
         <v>0.94930875576036899</v>
@@ -2881,889 +3358,889 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="B68">
-        <v>1950</v>
+        <v>2250</v>
       </c>
       <c r="C68">
         <v>0.3</v>
       </c>
       <c r="D68">
-        <v>0.96220985792860303</v>
+        <v>0.95889698231009302</v>
       </c>
       <c r="E68">
-        <v>0.60546363049259999</v>
+        <v>0.54143232473629699</v>
       </c>
       <c r="F68">
-        <v>0.94930875576036899</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="G68">
-        <v>0.94930875576036899</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="H68">
-        <v>0.94930875576036899</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="I68">
-        <v>0.89861751152073699</v>
+        <v>0.88955206143901999</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="B69">
-        <v>1950</v>
+        <v>2250</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69">
-        <v>0.96220985792860303</v>
+        <v>0.95889698231009302</v>
       </c>
       <c r="E69">
-        <v>0.60546363049261798</v>
+        <v>0.541432324736279</v>
       </c>
       <c r="F69">
-        <v>0.94930875576036899</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="G69">
-        <v>0.94930875576036899</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="H69">
-        <v>0.94930875576036899</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="I69">
-        <v>0.89861751152073699</v>
+        <v>0.88955206143901999</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="B70">
-        <v>1950</v>
+        <v>2250</v>
       </c>
       <c r="C70">
         <v>3</v>
       </c>
       <c r="D70">
-        <v>0.96220985792860303</v>
+        <v>0.95889698231009302</v>
       </c>
       <c r="E70">
-        <v>0.60546363049275898</v>
+        <v>0.54143232473634595</v>
       </c>
       <c r="F70">
-        <v>0.94930875576036899</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="G70">
-        <v>0.94930875576036899</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="H70">
-        <v>0.94930875576036899</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="I70">
-        <v>0.89861751152073699</v>
+        <v>0.88955206143901999</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B71">
-        <v>1950</v>
+        <v>2250</v>
       </c>
       <c r="C71">
         <v>10</v>
       </c>
       <c r="D71">
-        <v>0.96220985792860303</v>
+        <v>0.95889698231009302</v>
       </c>
       <c r="E71">
-        <v>0.60546363049176599</v>
+        <v>0.54143232473618497</v>
       </c>
       <c r="F71">
-        <v>0.94930875576036899</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="G71">
-        <v>0.94930875576036899</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="H71">
-        <v>0.94930875576036899</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="I71">
-        <v>0.89861751152073699</v>
+        <v>0.88955206143901999</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>1950</v>
+        <v>2250</v>
       </c>
       <c r="C72">
         <v>30</v>
       </c>
       <c r="D72">
-        <v>0.96220985792860303</v>
+        <v>0.95889698231009302</v>
       </c>
       <c r="E72">
-        <v>0.60546363049265295</v>
+        <v>0.54143232473640801</v>
       </c>
       <c r="F72">
-        <v>0.94930875576036899</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="G72">
-        <v>0.94930875576036899</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="H72">
-        <v>0.94930875576036899</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="I72">
-        <v>0.89861751152073699</v>
+        <v>0.88955206143901999</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="B73">
-        <v>1950</v>
+        <v>2250</v>
       </c>
       <c r="C73">
         <v>100</v>
       </c>
       <c r="D73">
-        <v>0.96220985792860303</v>
+        <v>0.95889698231009302</v>
       </c>
       <c r="E73">
-        <v>0.60546363049007301</v>
+        <v>0.54143232473679404</v>
       </c>
       <c r="F73">
-        <v>0.94930875576036899</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="G73">
-        <v>0.94930875576036899</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="H73">
-        <v>0.94930875576036899</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="I73">
-        <v>0.89861751152073699</v>
+        <v>0.88955206143901999</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B74">
-        <v>2150</v>
+        <v>2200</v>
       </c>
       <c r="C74">
         <v>0.3</v>
       </c>
       <c r="D74">
-        <v>0.96129669349529601</v>
+        <v>0.960234874386799</v>
       </c>
       <c r="E74">
-        <v>0.60766558278833605</v>
+        <v>0.59685244828708295</v>
       </c>
       <c r="F74">
-        <v>0.94700460829493105</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="G74">
-        <v>0.94930875576036899</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="H74">
-        <v>0.94470046082949299</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="I74">
-        <v>0.894018709501752</v>
+        <v>0.88018433179723499</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B75">
-        <v>2150</v>
+        <v>2200</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75">
-        <v>0.96129669349529601</v>
+        <v>0.960234874386799</v>
       </c>
       <c r="E75">
-        <v>0.60766558278827199</v>
+        <v>0.59685244828697603</v>
       </c>
       <c r="F75">
-        <v>0.94700460829493105</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="G75">
-        <v>0.94930875576036899</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="H75">
-        <v>0.94470046082949299</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="I75">
-        <v>0.894018709501752</v>
+        <v>0.88018433179723499</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B76">
-        <v>2150</v>
+        <v>2200</v>
       </c>
       <c r="C76">
         <v>3</v>
       </c>
       <c r="D76">
-        <v>0.96129669349529601</v>
+        <v>0.960234874386799</v>
       </c>
       <c r="E76">
-        <v>0.60766558278842198</v>
+        <v>0.59685244828690498</v>
       </c>
       <c r="F76">
-        <v>0.94700460829493105</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="G76">
-        <v>0.94930875576036899</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="H76">
-        <v>0.94470046082949299</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="I76">
-        <v>0.894018709501752</v>
+        <v>0.88018433179723499</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B77">
-        <v>2150</v>
+        <v>2200</v>
       </c>
       <c r="C77">
         <v>10</v>
       </c>
       <c r="D77">
-        <v>0.96129669349529601</v>
+        <v>0.960234874386799</v>
       </c>
       <c r="E77">
-        <v>0.60766558278825</v>
+        <v>0.59685244828699402</v>
       </c>
       <c r="F77">
-        <v>0.94700460829493105</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="G77">
-        <v>0.94930875576036899</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="H77">
-        <v>0.94470046082949299</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="I77">
-        <v>0.894018709501752</v>
+        <v>0.88018433179723499</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B78">
-        <v>2150</v>
+        <v>2200</v>
       </c>
       <c r="C78">
         <v>30</v>
       </c>
       <c r="D78">
-        <v>0.96129669349529601</v>
+        <v>0.960234874386799</v>
       </c>
       <c r="E78">
-        <v>0.60766558278444904</v>
+        <v>0.59685244828664397</v>
       </c>
       <c r="F78">
-        <v>0.94700460829493105</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="G78">
-        <v>0.94930875576036899</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="H78">
-        <v>0.94470046082949299</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="I78">
-        <v>0.894018709501752</v>
+        <v>0.88018433179723499</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B79">
-        <v>2150</v>
+        <v>2200</v>
       </c>
       <c r="C79">
         <v>100</v>
       </c>
       <c r="D79">
-        <v>0.96129669349529601</v>
+        <v>0.960234874386799</v>
       </c>
       <c r="E79">
-        <v>0.60766558278934302</v>
+        <v>0.59685244828481299</v>
       </c>
       <c r="F79">
-        <v>0.94700460829493105</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="G79">
-        <v>0.94930875576036899</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="H79">
-        <v>0.94470046082949299</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="I79">
-        <v>0.894018709501752</v>
+        <v>0.88018433179723499</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="B80">
-        <v>1850</v>
+        <v>2150</v>
       </c>
       <c r="C80">
         <v>0.3</v>
       </c>
       <c r="D80">
-        <v>0.96223109431077403</v>
+        <v>0.96129669349529601</v>
       </c>
       <c r="E80">
-        <v>0.63077755576225103</v>
+        <v>0.60766558278833605</v>
       </c>
       <c r="F80">
-        <v>0.94470046082949299</v>
+        <v>0.94700460829493105</v>
       </c>
       <c r="G80">
-        <v>0.953917050691244</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="H80">
-        <v>0.93548387096774199</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="I80">
-        <v>0.88955206143901999</v>
+        <v>0.894018709501752</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="B81">
-        <v>1850</v>
+        <v>2150</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81">
-        <v>0.96223109431077403</v>
+        <v>0.96129669349529601</v>
       </c>
       <c r="E81">
-        <v>0.63077755576221095</v>
+        <v>0.60766558278827199</v>
       </c>
       <c r="F81">
-        <v>0.94470046082949299</v>
+        <v>0.94700460829493105</v>
       </c>
       <c r="G81">
-        <v>0.953917050691244</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="H81">
-        <v>0.93548387096774199</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="I81">
-        <v>0.88955206143901999</v>
+        <v>0.894018709501752</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="B82">
-        <v>1850</v>
+        <v>2150</v>
       </c>
       <c r="C82">
         <v>3</v>
       </c>
       <c r="D82">
-        <v>0.96223109431077403</v>
+        <v>0.96129669349529601</v>
       </c>
       <c r="E82">
-        <v>0.63077755576220096</v>
+        <v>0.60766558278842198</v>
       </c>
       <c r="F82">
-        <v>0.94470046082949299</v>
+        <v>0.94700460829493105</v>
       </c>
       <c r="G82">
-        <v>0.953917050691244</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="H82">
-        <v>0.93548387096774199</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="I82">
-        <v>0.88955206143901999</v>
+        <v>0.894018709501752</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="B83">
-        <v>1850</v>
+        <v>2150</v>
       </c>
       <c r="C83">
         <v>10</v>
       </c>
       <c r="D83">
-        <v>0.96223109431077403</v>
+        <v>0.96129669349529601</v>
       </c>
       <c r="E83">
-        <v>0.63077755576264205</v>
+        <v>0.60766558278825</v>
       </c>
       <c r="F83">
-        <v>0.94470046082949299</v>
+        <v>0.94700460829493105</v>
       </c>
       <c r="G83">
-        <v>0.953917050691244</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="H83">
-        <v>0.93548387096774199</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="I83">
-        <v>0.88955206143901999</v>
+        <v>0.894018709501752</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="B84">
-        <v>1850</v>
+        <v>2150</v>
       </c>
       <c r="C84">
         <v>30</v>
       </c>
       <c r="D84">
-        <v>0.96223109431077403</v>
+        <v>0.96129669349529601</v>
       </c>
       <c r="E84">
-        <v>0.63077755576392203</v>
+        <v>0.60766558278444904</v>
       </c>
       <c r="F84">
-        <v>0.94470046082949299</v>
+        <v>0.94700460829493105</v>
       </c>
       <c r="G84">
-        <v>0.953917050691244</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="H84">
-        <v>0.93548387096774199</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="I84">
-        <v>0.88955206143901999</v>
+        <v>0.894018709501752</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="B85">
-        <v>1850</v>
+        <v>2150</v>
       </c>
       <c r="C85">
         <v>100</v>
       </c>
       <c r="D85">
-        <v>0.96223109431077403</v>
+        <v>0.96129669349529601</v>
       </c>
       <c r="E85">
-        <v>0.63077755573933803</v>
+        <v>0.60766558278934302</v>
       </c>
       <c r="F85">
-        <v>0.94470046082949299</v>
+        <v>0.94700460829493105</v>
       </c>
       <c r="G85">
-        <v>0.953917050691244</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="H85">
-        <v>0.93548387096774199</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="I85">
-        <v>0.88955206143901999</v>
+        <v>0.894018709501752</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="B86">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="C86">
         <v>0.3</v>
       </c>
       <c r="D86">
-        <v>0.96093567499840704</v>
+        <v>0.96220985792860303</v>
       </c>
       <c r="E86">
-        <v>0.56645300709743795</v>
+        <v>0.59997995543925597</v>
       </c>
       <c r="F86">
         <v>0.94470046082949299</v>
       </c>
       <c r="G86">
-        <v>0.93548387096774199</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="H86">
-        <v>0.953917050691244</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="I86">
-        <v>0.88955206143901999</v>
+        <v>0.88940092165898599</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="B87">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87">
-        <v>0.96093567499840704</v>
+        <v>0.96220985792860303</v>
       </c>
       <c r="E87">
-        <v>0.56645300709745605</v>
+        <v>0.59997995543924998</v>
       </c>
       <c r="F87">
         <v>0.94470046082949299</v>
       </c>
       <c r="G87">
-        <v>0.93548387096774199</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="H87">
-        <v>0.953917050691244</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="I87">
-        <v>0.88955206143901999</v>
+        <v>0.88940092165898599</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="B88">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="C88">
         <v>3</v>
       </c>
       <c r="D88">
-        <v>0.96093567499840704</v>
+        <v>0.96220985792860303</v>
       </c>
       <c r="E88">
-        <v>0.56645300709736901</v>
+        <v>0.599979955439218</v>
       </c>
       <c r="F88">
         <v>0.94470046082949299</v>
       </c>
       <c r="G88">
-        <v>0.93548387096774199</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="H88">
-        <v>0.953917050691244</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="I88">
-        <v>0.88955206143901999</v>
+        <v>0.88940092165898599</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="B89">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="C89">
         <v>10</v>
       </c>
       <c r="D89">
-        <v>0.96093567499840704</v>
+        <v>0.96220985792860303</v>
       </c>
       <c r="E89">
-        <v>0.56645300709750901</v>
+        <v>0.59997995543915394</v>
       </c>
       <c r="F89">
         <v>0.94470046082949299</v>
       </c>
       <c r="G89">
-        <v>0.93548387096774199</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="H89">
-        <v>0.953917050691244</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="I89">
-        <v>0.88955206143901999</v>
+        <v>0.88940092165898599</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="B90">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="C90">
         <v>30</v>
       </c>
       <c r="D90">
-        <v>0.96093567499840704</v>
+        <v>0.96220985792860303</v>
       </c>
       <c r="E90">
-        <v>0.56645300709725299</v>
+        <v>0.59997995543902205</v>
       </c>
       <c r="F90">
         <v>0.94470046082949299</v>
       </c>
       <c r="G90">
-        <v>0.93548387096774199</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="H90">
-        <v>0.953917050691244</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="I90">
-        <v>0.88955206143901999</v>
+        <v>0.88940092165898599</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="B91">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="C91">
         <v>100</v>
       </c>
       <c r="D91">
-        <v>0.96093567499840704</v>
+        <v>0.96220985792860303</v>
       </c>
       <c r="E91">
-        <v>0.56645300710045599</v>
+        <v>0.59997995544055804</v>
       </c>
       <c r="F91">
         <v>0.94470046082949299</v>
       </c>
       <c r="G91">
-        <v>0.93548387096774199</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="H91">
-        <v>0.953917050691244</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="I91">
-        <v>0.88955206143901999</v>
+        <v>0.88940092165898599</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="B92">
-        <v>2250</v>
+        <v>2050</v>
       </c>
       <c r="C92">
         <v>0.3</v>
       </c>
       <c r="D92">
-        <v>0.95889698231009302</v>
+        <v>0.96199749410690305</v>
       </c>
       <c r="E92">
-        <v>0.54143232473629699</v>
+        <v>0.60427768272197102</v>
       </c>
       <c r="F92">
         <v>0.94470046082949299</v>
       </c>
       <c r="G92">
-        <v>0.93548387096774199</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="H92">
-        <v>0.953917050691244</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="I92">
-        <v>0.88955206143901999</v>
+        <v>0.88940092165898599</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B93">
-        <v>2250</v>
+        <v>2050</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
       <c r="D93">
-        <v>0.95889698231009302</v>
+        <v>0.96199749410690305</v>
       </c>
       <c r="E93">
-        <v>0.541432324736279</v>
+        <v>0.60427768272195703</v>
       </c>
       <c r="F93">
         <v>0.94470046082949299</v>
       </c>
       <c r="G93">
-        <v>0.93548387096774199</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="H93">
-        <v>0.953917050691244</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="I93">
-        <v>0.88955206143901999</v>
+        <v>0.88940092165898599</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="B94">
-        <v>2250</v>
+        <v>2050</v>
       </c>
       <c r="C94">
         <v>3</v>
       </c>
       <c r="D94">
-        <v>0.95889698231009302</v>
+        <v>0.96199749410690305</v>
       </c>
       <c r="E94">
-        <v>0.54143232473634595</v>
+        <v>0.60427768272189997</v>
       </c>
       <c r="F94">
         <v>0.94470046082949299</v>
       </c>
       <c r="G94">
-        <v>0.93548387096774199</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="H94">
-        <v>0.953917050691244</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="I94">
-        <v>0.88955206143901999</v>
+        <v>0.88940092165898599</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="B95">
-        <v>2250</v>
+        <v>2050</v>
       </c>
       <c r="C95">
         <v>10</v>
       </c>
       <c r="D95">
-        <v>0.95889698231009302</v>
+        <v>0.96199749410690305</v>
       </c>
       <c r="E95">
-        <v>0.54143232473618497</v>
+        <v>0.60427768272188098</v>
       </c>
       <c r="F95">
         <v>0.94470046082949299</v>
       </c>
       <c r="G95">
-        <v>0.93548387096774199</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="H95">
-        <v>0.953917050691244</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="I95">
-        <v>0.88955206143901999</v>
+        <v>0.88940092165898599</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B96">
-        <v>2250</v>
+        <v>2050</v>
       </c>
       <c r="C96">
         <v>30</v>
       </c>
       <c r="D96">
-        <v>0.95889698231009302</v>
+        <v>0.96199749410690305</v>
       </c>
       <c r="E96">
-        <v>0.54143232473640801</v>
+        <v>0.60427768272230298</v>
       </c>
       <c r="F96">
         <v>0.94470046082949299</v>
       </c>
       <c r="G96">
-        <v>0.93548387096774199</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="H96">
-        <v>0.953917050691244</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="I96">
-        <v>0.88955206143901999</v>
+        <v>0.88940092165898599</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="B97">
-        <v>2250</v>
+        <v>2050</v>
       </c>
       <c r="C97">
         <v>100</v>
       </c>
       <c r="D97">
-        <v>0.95889698231009302</v>
+        <v>0.96199749410690305</v>
       </c>
       <c r="E97">
-        <v>0.54143232473679404</v>
+        <v>0.60427768272273097</v>
       </c>
       <c r="F97">
         <v>0.94470046082949299</v>
       </c>
       <c r="G97">
-        <v>0.93548387096774199</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="H97">
-        <v>0.953917050691244</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="I97">
-        <v>0.88955206143901999</v>
+        <v>0.88940092165898599</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B98">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="C98">
         <v>0.3</v>
       </c>
       <c r="D98">
-        <v>0.96220985792860303</v>
+        <v>0.96174265752086396</v>
       </c>
       <c r="E98">
-        <v>0.59997995543925597</v>
+        <v>0.606176262854629</v>
       </c>
       <c r="F98">
         <v>0.94470046082949299</v>
@@ -3780,19 +4257,19 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B99">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99">
-        <v>0.96220985792860303</v>
+        <v>0.96174265752086396</v>
       </c>
       <c r="E99">
-        <v>0.59997995543924998</v>
+        <v>0.60617626285462101</v>
       </c>
       <c r="F99">
         <v>0.94470046082949299</v>
@@ -3809,19 +4286,19 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B100">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="C100">
         <v>3</v>
       </c>
       <c r="D100">
-        <v>0.96220985792860303</v>
+        <v>0.96174265752086396</v>
       </c>
       <c r="E100">
-        <v>0.599979955439218</v>
+        <v>0.60617626285459303</v>
       </c>
       <c r="F100">
         <v>0.94470046082949299</v>
@@ -3838,19 +4315,19 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B101">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="C101">
         <v>10</v>
       </c>
       <c r="D101">
-        <v>0.96220985792860303</v>
+        <v>0.96174265752086396</v>
       </c>
       <c r="E101">
-        <v>0.59997995543915394</v>
+        <v>0.60617626285525406</v>
       </c>
       <c r="F101">
         <v>0.94470046082949299</v>
@@ -3867,19 +4344,19 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B102">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="C102">
         <v>30</v>
       </c>
       <c r="D102">
-        <v>0.96220985792860303</v>
+        <v>0.96174265752086396</v>
       </c>
       <c r="E102">
-        <v>0.59997995543902205</v>
+        <v>0.60617626285411497</v>
       </c>
       <c r="F102">
         <v>0.94470046082949299</v>
@@ -3896,19 +4373,19 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B103">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="C103">
         <v>100</v>
       </c>
       <c r="D103">
-        <v>0.96220985792860303</v>
+        <v>0.96174265752086396</v>
       </c>
       <c r="E103">
-        <v>0.59997995544055804</v>
+        <v>0.60617626284709303</v>
       </c>
       <c r="F103">
         <v>0.94470046082949299</v>
@@ -3925,698 +4402,698 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B104">
-        <v>2050</v>
+        <v>1950</v>
       </c>
       <c r="C104">
         <v>0.3</v>
       </c>
       <c r="D104">
-        <v>0.96199749410690305</v>
+        <v>0.96220985792860303</v>
       </c>
       <c r="E104">
-        <v>0.60427768272197102</v>
+        <v>0.60546363049259999</v>
       </c>
       <c r="F104">
-        <v>0.94470046082949299</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="G104">
-        <v>0.94470046082949299</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="H104">
-        <v>0.94470046082949299</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="I104">
-        <v>0.88940092165898599</v>
+        <v>0.89861751152073699</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B105">
-        <v>2050</v>
+        <v>1950</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105">
-        <v>0.96199749410690305</v>
+        <v>0.96220985792860303</v>
       </c>
       <c r="E105">
-        <v>0.60427768272195703</v>
+        <v>0.60546363049261798</v>
       </c>
       <c r="F105">
-        <v>0.94470046082949299</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="G105">
-        <v>0.94470046082949299</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="H105">
-        <v>0.94470046082949299</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="I105">
-        <v>0.88940092165898599</v>
+        <v>0.89861751152073699</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B106">
-        <v>2050</v>
+        <v>1950</v>
       </c>
       <c r="C106">
         <v>3</v>
       </c>
       <c r="D106">
-        <v>0.96199749410690305</v>
+        <v>0.96220985792860303</v>
       </c>
       <c r="E106">
-        <v>0.60427768272189997</v>
+        <v>0.60546363049275898</v>
       </c>
       <c r="F106">
-        <v>0.94470046082949299</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="G106">
-        <v>0.94470046082949299</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="H106">
-        <v>0.94470046082949299</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="I106">
-        <v>0.88940092165898599</v>
+        <v>0.89861751152073699</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B107">
-        <v>2050</v>
+        <v>1950</v>
       </c>
       <c r="C107">
         <v>10</v>
       </c>
       <c r="D107">
-        <v>0.96199749410690305</v>
+        <v>0.96220985792860303</v>
       </c>
       <c r="E107">
-        <v>0.60427768272188098</v>
+        <v>0.60546363049176599</v>
       </c>
       <c r="F107">
-        <v>0.94470046082949299</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="G107">
-        <v>0.94470046082949299</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="H107">
-        <v>0.94470046082949299</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="I107">
-        <v>0.88940092165898599</v>
+        <v>0.89861751152073699</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B108">
-        <v>2050</v>
+        <v>1950</v>
       </c>
       <c r="C108">
         <v>30</v>
       </c>
       <c r="D108">
-        <v>0.96199749410690305</v>
+        <v>0.96220985792860303</v>
       </c>
       <c r="E108">
-        <v>0.60427768272230298</v>
+        <v>0.60546363049265295</v>
       </c>
       <c r="F108">
-        <v>0.94470046082949299</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="G108">
-        <v>0.94470046082949299</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="H108">
-        <v>0.94470046082949299</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="I108">
-        <v>0.88940092165898599</v>
+        <v>0.89861751152073699</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B109">
-        <v>2050</v>
+        <v>1950</v>
       </c>
       <c r="C109">
         <v>100</v>
       </c>
       <c r="D109">
-        <v>0.96199749410690305</v>
+        <v>0.96220985792860303</v>
       </c>
       <c r="E109">
-        <v>0.60427768272273097</v>
+        <v>0.60546363049007301</v>
       </c>
       <c r="F109">
-        <v>0.94470046082949299</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="G109">
-        <v>0.94470046082949299</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="H109">
-        <v>0.94470046082949299</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="I109">
-        <v>0.88940092165898599</v>
+        <v>0.89861751152073699</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B110">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="C110">
         <v>0.3</v>
       </c>
       <c r="D110">
-        <v>0.96174265752086396</v>
+        <v>0.96155153008133598</v>
       </c>
       <c r="E110">
-        <v>0.606176262854629</v>
+        <v>0.606552955472067</v>
       </c>
       <c r="F110">
-        <v>0.94470046082949299</v>
+        <v>0.94239631336405505</v>
       </c>
       <c r="G110">
         <v>0.94470046082949299</v>
       </c>
       <c r="H110">
-        <v>0.94470046082949299</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="I110">
-        <v>0.88940092165898599</v>
+        <v>0.88480202177492995</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B111">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
       <c r="D111">
-        <v>0.96174265752086396</v>
+        <v>0.96155153008133598</v>
       </c>
       <c r="E111">
-        <v>0.60617626285462101</v>
+        <v>0.60655295547210197</v>
       </c>
       <c r="F111">
-        <v>0.94470046082949299</v>
+        <v>0.94239631336405505</v>
       </c>
       <c r="G111">
         <v>0.94470046082949299</v>
       </c>
       <c r="H111">
-        <v>0.94470046082949299</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="I111">
-        <v>0.88940092165898599</v>
+        <v>0.88480202177492995</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B112">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="C112">
         <v>3</v>
       </c>
       <c r="D112">
-        <v>0.96174265752086396</v>
+        <v>0.96155153008133598</v>
       </c>
       <c r="E112">
-        <v>0.60617626285459303</v>
+        <v>0.60655295547201304</v>
       </c>
       <c r="F112">
-        <v>0.94470046082949299</v>
+        <v>0.94239631336405505</v>
       </c>
       <c r="G112">
         <v>0.94470046082949299</v>
       </c>
       <c r="H112">
-        <v>0.94470046082949299</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="I112">
-        <v>0.88940092165898599</v>
+        <v>0.88480202177492995</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B113">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="C113">
         <v>10</v>
       </c>
       <c r="D113">
-        <v>0.96174265752086396</v>
+        <v>0.96155153008133598</v>
       </c>
       <c r="E113">
-        <v>0.60617626285525406</v>
+        <v>0.60655295547157995</v>
       </c>
       <c r="F113">
-        <v>0.94470046082949299</v>
+        <v>0.94239631336405505</v>
       </c>
       <c r="G113">
         <v>0.94470046082949299</v>
       </c>
       <c r="H113">
-        <v>0.94470046082949299</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="I113">
-        <v>0.88940092165898599</v>
+        <v>0.88480202177492995</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B114">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="C114">
         <v>30</v>
       </c>
       <c r="D114">
-        <v>0.96174265752086396</v>
+        <v>0.96155153008133598</v>
       </c>
       <c r="E114">
-        <v>0.60617626285411497</v>
+        <v>0.60655295547218901</v>
       </c>
       <c r="F114">
-        <v>0.94470046082949299</v>
+        <v>0.94239631336405505</v>
       </c>
       <c r="G114">
         <v>0.94470046082949299</v>
       </c>
       <c r="H114">
-        <v>0.94470046082949299</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="I114">
-        <v>0.88940092165898599</v>
+        <v>0.88480202177492995</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B115">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="C115">
         <v>100</v>
       </c>
       <c r="D115">
-        <v>0.96174265752086396</v>
+        <v>0.96155153008133598</v>
       </c>
       <c r="E115">
-        <v>0.60617626284709303</v>
+        <v>0.606552955477486</v>
       </c>
       <c r="F115">
-        <v>0.94470046082949299</v>
+        <v>0.94239631336405505</v>
       </c>
       <c r="G115">
         <v>0.94470046082949299</v>
       </c>
       <c r="H115">
-        <v>0.94470046082949299</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="I115">
-        <v>0.88940092165898599</v>
+        <v>0.88480202177492995</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="B116">
-        <v>1550</v>
+        <v>1850</v>
       </c>
       <c r="C116">
         <v>0.3</v>
       </c>
       <c r="D116">
-        <v>0.96061712926585896</v>
+        <v>0.96223109431077403</v>
       </c>
       <c r="E116">
-        <v>0.59809245251396403</v>
+        <v>0.63077755576225103</v>
       </c>
       <c r="F116">
         <v>0.94470046082949299</v>
       </c>
       <c r="G116">
-        <v>0.94470046082949299</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="H116">
-        <v>0.94470046082949299</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="I116">
-        <v>0.88940092165898599</v>
+        <v>0.88955206143901999</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="B117">
-        <v>1550</v>
+        <v>1850</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117">
-        <v>0.96061712926585896</v>
+        <v>0.96223109431077403</v>
       </c>
       <c r="E117">
-        <v>0.59809245251397103</v>
+        <v>0.63077755576221095</v>
       </c>
       <c r="F117">
         <v>0.94470046082949299</v>
       </c>
       <c r="G117">
-        <v>0.94470046082949299</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="H117">
-        <v>0.94470046082949299</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="I117">
-        <v>0.88940092165898599</v>
+        <v>0.88955206143901999</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="B118">
-        <v>1550</v>
+        <v>1850</v>
       </c>
       <c r="C118">
         <v>3</v>
       </c>
       <c r="D118">
-        <v>0.96061712926585896</v>
+        <v>0.96223109431077403</v>
       </c>
       <c r="E118">
-        <v>0.59809245251398702</v>
+        <v>0.63077755576220096</v>
       </c>
       <c r="F118">
         <v>0.94470046082949299</v>
       </c>
       <c r="G118">
-        <v>0.94470046082949299</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="H118">
-        <v>0.94470046082949299</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="I118">
-        <v>0.88940092165898599</v>
+        <v>0.88955206143901999</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="B119">
-        <v>1550</v>
+        <v>1850</v>
       </c>
       <c r="C119">
         <v>10</v>
       </c>
       <c r="D119">
-        <v>0.96061712926585896</v>
+        <v>0.96223109431077403</v>
       </c>
       <c r="E119">
-        <v>0.598092452513871</v>
+        <v>0.63077755576264205</v>
       </c>
       <c r="F119">
         <v>0.94470046082949299</v>
       </c>
       <c r="G119">
-        <v>0.94470046082949299</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="H119">
-        <v>0.94470046082949299</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="I119">
-        <v>0.88940092165898599</v>
+        <v>0.88955206143901999</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="B120">
-        <v>1550</v>
+        <v>1850</v>
       </c>
       <c r="C120">
         <v>30</v>
       </c>
       <c r="D120">
-        <v>0.96061712926585896</v>
+        <v>0.96223109431077403</v>
       </c>
       <c r="E120">
-        <v>0.59809245251378096</v>
+        <v>0.63077755576392203</v>
       </c>
       <c r="F120">
         <v>0.94470046082949299</v>
       </c>
       <c r="G120">
-        <v>0.94470046082949299</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="H120">
-        <v>0.94470046082949299</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="I120">
-        <v>0.88940092165898599</v>
+        <v>0.88955206143901999</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="B121">
-        <v>1550</v>
+        <v>1850</v>
       </c>
       <c r="C121">
         <v>100</v>
       </c>
       <c r="D121">
-        <v>0.96061712926585896</v>
+        <v>0.96223109431077403</v>
       </c>
       <c r="E121">
-        <v>0.59809245251353405</v>
+        <v>0.63077755573933803</v>
       </c>
       <c r="F121">
         <v>0.94470046082949299</v>
       </c>
       <c r="G121">
-        <v>0.94470046082949299</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="H121">
-        <v>0.94470046082949299</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="I121">
-        <v>0.88940092165898599</v>
+        <v>0.88955206143901999</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="B122">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="C122">
         <v>0.3</v>
       </c>
       <c r="D122">
-        <v>0.960213638004631</v>
+        <v>0.96333538618361003</v>
       </c>
       <c r="E122">
-        <v>0.576043263391399</v>
+        <v>0.58396297674531805</v>
       </c>
       <c r="F122">
-        <v>0.94239631336405505</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="G122">
         <v>0.93087557603686599</v>
       </c>
       <c r="H122">
-        <v>0.953917050691244</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="I122">
-        <v>0.88502759272104803</v>
+        <v>0.88033390536193101</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="B123">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
       <c r="D123">
-        <v>0.960213638004631</v>
+        <v>0.96333538618361003</v>
       </c>
       <c r="E123">
-        <v>0.57604326339141698</v>
+        <v>0.58396297674531095</v>
       </c>
       <c r="F123">
-        <v>0.94239631336405505</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="G123">
         <v>0.93087557603686599</v>
       </c>
       <c r="H123">
-        <v>0.953917050691244</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="I123">
-        <v>0.88502759272104803</v>
+        <v>0.88033390536193101</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="B124">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="C124">
         <v>3</v>
       </c>
       <c r="D124">
-        <v>0.960213638004631</v>
+        <v>0.96333538618361003</v>
       </c>
       <c r="E124">
-        <v>0.57604326339140999</v>
+        <v>0.58396297674541697</v>
       </c>
       <c r="F124">
-        <v>0.94239631336405505</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="G124">
         <v>0.93087557603686599</v>
       </c>
       <c r="H124">
-        <v>0.953917050691244</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="I124">
-        <v>0.88502759272104803</v>
+        <v>0.88033390536193101</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="B125">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="C125">
         <v>10</v>
       </c>
       <c r="D125">
-        <v>0.960213638004631</v>
+        <v>0.96333538618361003</v>
       </c>
       <c r="E125">
-        <v>0.57604326339143896</v>
+        <v>0.58396297674520203</v>
       </c>
       <c r="F125">
-        <v>0.94239631336405505</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="G125">
         <v>0.93087557603686599</v>
       </c>
       <c r="H125">
-        <v>0.953917050691244</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="I125">
-        <v>0.88502759272104803</v>
+        <v>0.88033390536193101</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="B126">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="C126">
         <v>30</v>
       </c>
       <c r="D126">
-        <v>0.960213638004631</v>
+        <v>0.96333538618361003</v>
       </c>
       <c r="E126">
-        <v>0.57604326339149303</v>
+        <v>0.58396297674730502</v>
       </c>
       <c r="F126">
-        <v>0.94239631336405505</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="G126">
         <v>0.93087557603686599</v>
       </c>
       <c r="H126">
-        <v>0.953917050691244</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="I126">
-        <v>0.88502759272104803</v>
+        <v>0.88033390536193101</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="B127">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="C127">
         <v>100</v>
       </c>
       <c r="D127">
-        <v>0.960213638004631</v>
+        <v>0.96333538618361003</v>
       </c>
       <c r="E127">
-        <v>0.57604326339087997</v>
+        <v>0.58396297673868003</v>
       </c>
       <c r="F127">
-        <v>0.94239631336405505</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="G127">
         <v>0.93087557603686599</v>
       </c>
       <c r="H127">
-        <v>0.953917050691244</v>
+        <v>0.94930875576036899</v>
       </c>
       <c r="I127">
-        <v>0.88502759272104803</v>
+        <v>0.88033390536193101</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4795,877 +5272,877 @@
     </row>
     <row r="134" spans="1:9">
       <c r="A134">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="B134">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="C134">
         <v>0.3</v>
       </c>
       <c r="D134">
-        <v>0.96155153008133598</v>
+        <v>0.96093567499840704</v>
       </c>
       <c r="E134">
-        <v>0.606552955472067</v>
+        <v>0.56645300709743795</v>
       </c>
       <c r="F134">
-        <v>0.94239631336405505</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="G134">
-        <v>0.94470046082949299</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="H134">
-        <v>0.94009216589861799</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="I134">
-        <v>0.88480202177492995</v>
+        <v>0.88955206143901999</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="B135">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135">
-        <v>0.96155153008133598</v>
+        <v>0.96093567499840704</v>
       </c>
       <c r="E135">
-        <v>0.60655295547210197</v>
+        <v>0.56645300709745605</v>
       </c>
       <c r="F135">
-        <v>0.94239631336405505</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="G135">
-        <v>0.94470046082949299</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="H135">
-        <v>0.94009216589861799</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="I135">
-        <v>0.88480202177492995</v>
+        <v>0.88955206143901999</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="B136">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="C136">
         <v>3</v>
       </c>
       <c r="D136">
-        <v>0.96155153008133598</v>
+        <v>0.96093567499840704</v>
       </c>
       <c r="E136">
-        <v>0.60655295547201304</v>
+        <v>0.56645300709736901</v>
       </c>
       <c r="F136">
-        <v>0.94239631336405505</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="G136">
-        <v>0.94470046082949299</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="H136">
-        <v>0.94009216589861799</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="I136">
-        <v>0.88480202177492995</v>
+        <v>0.88955206143901999</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="B137">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="C137">
         <v>10</v>
       </c>
       <c r="D137">
-        <v>0.96155153008133598</v>
+        <v>0.96093567499840704</v>
       </c>
       <c r="E137">
-        <v>0.60655295547157995</v>
+        <v>0.56645300709750901</v>
       </c>
       <c r="F137">
-        <v>0.94239631336405505</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="G137">
-        <v>0.94470046082949299</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="H137">
-        <v>0.94009216589861799</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="I137">
-        <v>0.88480202177492995</v>
+        <v>0.88955206143901999</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B138">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="C138">
         <v>30</v>
       </c>
       <c r="D138">
-        <v>0.96155153008133598</v>
+        <v>0.96093567499840704</v>
       </c>
       <c r="E138">
-        <v>0.60655295547218901</v>
+        <v>0.56645300709725299</v>
       </c>
       <c r="F138">
-        <v>0.94239631336405505</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="G138">
-        <v>0.94470046082949299</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="H138">
-        <v>0.94009216589861799</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="I138">
-        <v>0.88480202177492995</v>
+        <v>0.88955206143901999</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="B139">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="C139">
         <v>100</v>
       </c>
       <c r="D139">
-        <v>0.96155153008133598</v>
+        <v>0.96093567499840704</v>
       </c>
       <c r="E139">
-        <v>0.606552955477486</v>
+        <v>0.56645300710045599</v>
       </c>
       <c r="F139">
-        <v>0.94239631336405505</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="G139">
-        <v>0.94470046082949299</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="H139">
-        <v>0.94009216589861799</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="I139">
-        <v>0.88480202177492995</v>
+        <v>0.88955206143901999</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="B140">
-        <v>1500</v>
+        <v>1650</v>
       </c>
       <c r="C140">
         <v>0.3</v>
       </c>
       <c r="D140">
-        <v>0.96006498332944001</v>
+        <v>0.96040476544415998</v>
       </c>
       <c r="E140">
-        <v>0.61122144803263601</v>
+        <v>0.62009703294848795</v>
       </c>
       <c r="F140">
-        <v>0.94239631336405505</v>
+        <v>0.93778801843318005</v>
       </c>
       <c r="G140">
         <v>0.94009216589861799</v>
       </c>
       <c r="H140">
-        <v>0.94470046082949299</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="I140">
-        <v>0.88480202177492995</v>
+        <v>0.87558533404810701</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="B141">
-        <v>1500</v>
+        <v>1650</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141">
-        <v>0.96006498332944001</v>
+        <v>0.96040476544415998</v>
       </c>
       <c r="E141">
-        <v>0.61122144803259504</v>
+        <v>0.620097032948566</v>
       </c>
       <c r="F141">
-        <v>0.94239631336405505</v>
+        <v>0.93778801843318005</v>
       </c>
       <c r="G141">
         <v>0.94009216589861799</v>
       </c>
       <c r="H141">
-        <v>0.94470046082949299</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="I141">
-        <v>0.88480202177492995</v>
+        <v>0.87558533404810701</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B142">
-        <v>1500</v>
+        <v>1650</v>
       </c>
       <c r="C142">
         <v>3</v>
       </c>
       <c r="D142">
-        <v>0.96006498332944001</v>
+        <v>0.96040476544415998</v>
       </c>
       <c r="E142">
-        <v>0.61122144803246603</v>
+        <v>0.620097032948566</v>
       </c>
       <c r="F142">
-        <v>0.94239631336405505</v>
+        <v>0.93778801843318005</v>
       </c>
       <c r="G142">
         <v>0.94009216589861799</v>
       </c>
       <c r="H142">
-        <v>0.94470046082949299</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="I142">
-        <v>0.88480202177492995</v>
+        <v>0.87558533404810701</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="B143">
-        <v>1500</v>
+        <v>1650</v>
       </c>
       <c r="C143">
         <v>10</v>
       </c>
       <c r="D143">
-        <v>0.96006498332944001</v>
+        <v>0.96040476544415998</v>
       </c>
       <c r="E143">
-        <v>0.61122144803201095</v>
+        <v>0.62009703294754204</v>
       </c>
       <c r="F143">
-        <v>0.94239631336405505</v>
+        <v>0.93778801843318005</v>
       </c>
       <c r="G143">
         <v>0.94009216589861799</v>
       </c>
       <c r="H143">
-        <v>0.94470046082949299</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="I143">
-        <v>0.88480202177492995</v>
+        <v>0.87558533404810701</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="B144">
-        <v>1500</v>
+        <v>1650</v>
       </c>
       <c r="C144">
         <v>30</v>
       </c>
       <c r="D144">
-        <v>0.96006498332944001</v>
+        <v>0.96040476544415998</v>
       </c>
       <c r="E144">
-        <v>0.61122144803566103</v>
+        <v>0.62009703294617602</v>
       </c>
       <c r="F144">
-        <v>0.94239631336405505</v>
+        <v>0.93778801843318005</v>
       </c>
       <c r="G144">
         <v>0.94009216589861799</v>
       </c>
       <c r="H144">
-        <v>0.94470046082949299</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="I144">
-        <v>0.88480202177492995</v>
+        <v>0.87558533404810701</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="B145">
-        <v>1500</v>
+        <v>1650</v>
       </c>
       <c r="C145">
         <v>100</v>
       </c>
       <c r="D145">
-        <v>0.96006498332944001</v>
+        <v>0.96040476544415998</v>
       </c>
       <c r="E145">
-        <v>0.61122144803873601</v>
+        <v>0.620097032953006</v>
       </c>
       <c r="F145">
-        <v>0.94239631336405505</v>
+        <v>0.93778801843318005</v>
       </c>
       <c r="G145">
         <v>0.94009216589861799</v>
       </c>
       <c r="H145">
-        <v>0.94470046082949299</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="I145">
-        <v>0.88480202177492995</v>
+        <v>0.87558533404810701</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="B146">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="C146">
         <v>0.3</v>
       </c>
       <c r="D146">
-        <v>0.96333538618361003</v>
+        <v>0.960213638004631</v>
       </c>
       <c r="E146">
-        <v>0.58396297674531805</v>
+        <v>0.576043263391399</v>
       </c>
       <c r="F146">
-        <v>0.94009216589861799</v>
+        <v>0.94239631336405505</v>
       </c>
       <c r="G146">
         <v>0.93087557603686599</v>
       </c>
       <c r="H146">
-        <v>0.94930875576036899</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="I146">
-        <v>0.88033390536193101</v>
+        <v>0.88502759272104803</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="B147">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147">
-        <v>0.96333538618361003</v>
+        <v>0.960213638004631</v>
       </c>
       <c r="E147">
-        <v>0.58396297674531095</v>
+        <v>0.57604326339141698</v>
       </c>
       <c r="F147">
-        <v>0.94009216589861799</v>
+        <v>0.94239631336405505</v>
       </c>
       <c r="G147">
         <v>0.93087557603686599</v>
       </c>
       <c r="H147">
-        <v>0.94930875576036899</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="I147">
-        <v>0.88033390536193101</v>
+        <v>0.88502759272104803</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="B148">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="C148">
         <v>3</v>
       </c>
       <c r="D148">
-        <v>0.96333538618361003</v>
+        <v>0.960213638004631</v>
       </c>
       <c r="E148">
-        <v>0.58396297674541697</v>
+        <v>0.57604326339140999</v>
       </c>
       <c r="F148">
-        <v>0.94009216589861799</v>
+        <v>0.94239631336405505</v>
       </c>
       <c r="G148">
         <v>0.93087557603686599</v>
       </c>
       <c r="H148">
-        <v>0.94930875576036899</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="I148">
-        <v>0.88033390536193101</v>
+        <v>0.88502759272104803</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="B149">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="C149">
         <v>10</v>
       </c>
       <c r="D149">
-        <v>0.96333538618361003</v>
+        <v>0.960213638004631</v>
       </c>
       <c r="E149">
-        <v>0.58396297674520203</v>
+        <v>0.57604326339143896</v>
       </c>
       <c r="F149">
-        <v>0.94009216589861799</v>
+        <v>0.94239631336405505</v>
       </c>
       <c r="G149">
         <v>0.93087557603686599</v>
       </c>
       <c r="H149">
-        <v>0.94930875576036899</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="I149">
-        <v>0.88033390536193101</v>
+        <v>0.88502759272104803</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="B150">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="C150">
         <v>30</v>
       </c>
       <c r="D150">
-        <v>0.96333538618361003</v>
+        <v>0.960213638004631</v>
       </c>
       <c r="E150">
-        <v>0.58396297674730502</v>
+        <v>0.57604326339149303</v>
       </c>
       <c r="F150">
-        <v>0.94009216589861799</v>
+        <v>0.94239631336405505</v>
       </c>
       <c r="G150">
         <v>0.93087557603686599</v>
       </c>
       <c r="H150">
-        <v>0.94930875576036899</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="I150">
-        <v>0.88033390536193101</v>
+        <v>0.88502759272104803</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="B151">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="C151">
         <v>100</v>
       </c>
       <c r="D151">
-        <v>0.96333538618361003</v>
+        <v>0.960213638004631</v>
       </c>
       <c r="E151">
-        <v>0.58396297673868003</v>
+        <v>0.57604326339087997</v>
       </c>
       <c r="F151">
-        <v>0.94009216589861799</v>
+        <v>0.94239631336405505</v>
       </c>
       <c r="G151">
         <v>0.93087557603686599</v>
       </c>
       <c r="H151">
-        <v>0.94930875576036899</v>
+        <v>0.953917050691244</v>
       </c>
       <c r="I151">
-        <v>0.88033390536193101</v>
+        <v>0.88502759272104803</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="B152">
-        <v>2200</v>
+        <v>1550</v>
       </c>
       <c r="C152">
         <v>0.3</v>
       </c>
       <c r="D152">
-        <v>0.960234874386799</v>
+        <v>0.96061712926585896</v>
       </c>
       <c r="E152">
-        <v>0.59685244828708295</v>
+        <v>0.59809245251396403</v>
       </c>
       <c r="F152">
-        <v>0.94009216589861799</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="G152">
-        <v>0.94009216589861799</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="H152">
-        <v>0.94009216589861799</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="I152">
-        <v>0.88018433179723499</v>
+        <v>0.88940092165898599</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="B153">
-        <v>2200</v>
+        <v>1550</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="D153">
-        <v>0.960234874386799</v>
+        <v>0.96061712926585896</v>
       </c>
       <c r="E153">
-        <v>0.59685244828697603</v>
+        <v>0.59809245251397103</v>
       </c>
       <c r="F153">
-        <v>0.94009216589861799</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="G153">
-        <v>0.94009216589861799</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="H153">
-        <v>0.94009216589861799</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="I153">
-        <v>0.88018433179723499</v>
+        <v>0.88940092165898599</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="B154">
-        <v>2200</v>
+        <v>1550</v>
       </c>
       <c r="C154">
         <v>3</v>
       </c>
       <c r="D154">
-        <v>0.960234874386799</v>
+        <v>0.96061712926585896</v>
       </c>
       <c r="E154">
-        <v>0.59685244828690498</v>
+        <v>0.59809245251398702</v>
       </c>
       <c r="F154">
-        <v>0.94009216589861799</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="G154">
-        <v>0.94009216589861799</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="H154">
-        <v>0.94009216589861799</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="I154">
-        <v>0.88018433179723499</v>
+        <v>0.88940092165898599</v>
       </c>
     </row>
     <row r="155" spans="1:9">
       <c r="A155">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="B155">
-        <v>2200</v>
+        <v>1550</v>
       </c>
       <c r="C155">
         <v>10</v>
       </c>
       <c r="D155">
-        <v>0.960234874386799</v>
+        <v>0.96061712926585896</v>
       </c>
       <c r="E155">
-        <v>0.59685244828699402</v>
+        <v>0.598092452513871</v>
       </c>
       <c r="F155">
-        <v>0.94009216589861799</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="G155">
-        <v>0.94009216589861799</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="H155">
-        <v>0.94009216589861799</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="I155">
-        <v>0.88018433179723499</v>
+        <v>0.88940092165898599</v>
       </c>
     </row>
     <row r="156" spans="1:9">
       <c r="A156">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="B156">
-        <v>2200</v>
+        <v>1550</v>
       </c>
       <c r="C156">
         <v>30</v>
       </c>
       <c r="D156">
-        <v>0.960234874386799</v>
+        <v>0.96061712926585896</v>
       </c>
       <c r="E156">
-        <v>0.59685244828664397</v>
+        <v>0.59809245251378096</v>
       </c>
       <c r="F156">
-        <v>0.94009216589861799</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="G156">
-        <v>0.94009216589861799</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="H156">
-        <v>0.94009216589861799</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="I156">
-        <v>0.88018433179723499</v>
+        <v>0.88940092165898599</v>
       </c>
     </row>
     <row r="157" spans="1:9">
       <c r="A157">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="B157">
-        <v>2200</v>
+        <v>1550</v>
       </c>
       <c r="C157">
         <v>100</v>
       </c>
       <c r="D157">
-        <v>0.960234874386799</v>
+        <v>0.96061712926585896</v>
       </c>
       <c r="E157">
-        <v>0.59685244828481299</v>
+        <v>0.59809245251353405</v>
       </c>
       <c r="F157">
-        <v>0.94009216589861799</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="G157">
-        <v>0.94009216589861799</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="H157">
-        <v>0.94009216589861799</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="I157">
-        <v>0.88018433179723499</v>
+        <v>0.88940092165898599</v>
       </c>
     </row>
     <row r="158" spans="1:9">
       <c r="A158">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B158">
-        <v>1650</v>
+        <v>1500</v>
       </c>
       <c r="C158">
         <v>0.3</v>
       </c>
       <c r="D158">
-        <v>0.96040476544415998</v>
+        <v>0.96006498332944001</v>
       </c>
       <c r="E158">
-        <v>0.62009703294848795</v>
+        <v>0.61122144803263601</v>
       </c>
       <c r="F158">
-        <v>0.93778801843318005</v>
+        <v>0.94239631336405505</v>
       </c>
       <c r="G158">
         <v>0.94009216589861799</v>
       </c>
       <c r="H158">
-        <v>0.93548387096774199</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="I158">
-        <v>0.87558533404810701</v>
+        <v>0.88480202177492995</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="B159">
-        <v>1650</v>
+        <v>1500</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>0.96040476544415998</v>
+        <v>0.96006498332944001</v>
       </c>
       <c r="E159">
-        <v>0.620097032948566</v>
+        <v>0.61122144803259504</v>
       </c>
       <c r="F159">
-        <v>0.93778801843318005</v>
+        <v>0.94239631336405505</v>
       </c>
       <c r="G159">
         <v>0.94009216589861799</v>
       </c>
       <c r="H159">
-        <v>0.93548387096774199</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="I159">
-        <v>0.87558533404810701</v>
+        <v>0.88480202177492995</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B160">
-        <v>1650</v>
+        <v>1500</v>
       </c>
       <c r="C160">
         <v>3</v>
       </c>
       <c r="D160">
-        <v>0.96040476544415998</v>
+        <v>0.96006498332944001</v>
       </c>
       <c r="E160">
-        <v>0.620097032948566</v>
+        <v>0.61122144803246603</v>
       </c>
       <c r="F160">
-        <v>0.93778801843318005</v>
+        <v>0.94239631336405505</v>
       </c>
       <c r="G160">
         <v>0.94009216589861799</v>
       </c>
       <c r="H160">
-        <v>0.93548387096774199</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="I160">
-        <v>0.87558533404810701</v>
+        <v>0.88480202177492995</v>
       </c>
     </row>
     <row r="161" spans="1:9">
       <c r="A161">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="B161">
-        <v>1650</v>
+        <v>1500</v>
       </c>
       <c r="C161">
         <v>10</v>
       </c>
       <c r="D161">
-        <v>0.96040476544415998</v>
+        <v>0.96006498332944001</v>
       </c>
       <c r="E161">
-        <v>0.62009703294754204</v>
+        <v>0.61122144803201095</v>
       </c>
       <c r="F161">
-        <v>0.93778801843318005</v>
+        <v>0.94239631336405505</v>
       </c>
       <c r="G161">
         <v>0.94009216589861799</v>
       </c>
       <c r="H161">
-        <v>0.93548387096774199</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="I161">
-        <v>0.87558533404810701</v>
+        <v>0.88480202177492995</v>
       </c>
     </row>
     <row r="162" spans="1:9">
       <c r="A162">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B162">
-        <v>1650</v>
+        <v>1500</v>
       </c>
       <c r="C162">
         <v>30</v>
       </c>
       <c r="D162">
-        <v>0.96040476544415998</v>
+        <v>0.96006498332944001</v>
       </c>
       <c r="E162">
-        <v>0.62009703294617602</v>
+        <v>0.61122144803566103</v>
       </c>
       <c r="F162">
-        <v>0.93778801843318005</v>
+        <v>0.94239631336405505</v>
       </c>
       <c r="G162">
         <v>0.94009216589861799</v>
       </c>
       <c r="H162">
-        <v>0.93548387096774199</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="I162">
-        <v>0.87558533404810701</v>
+        <v>0.88480202177492995</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="B163">
-        <v>1650</v>
+        <v>1500</v>
       </c>
       <c r="C163">
         <v>100</v>
       </c>
       <c r="D163">
-        <v>0.96040476544415998</v>
+        <v>0.96006498332944001</v>
       </c>
       <c r="E163">
-        <v>0.620097032953006</v>
+        <v>0.61122144803873601</v>
       </c>
       <c r="F163">
-        <v>0.93778801843318005</v>
+        <v>0.94239631336405505</v>
       </c>
       <c r="G163">
         <v>0.94009216589861799</v>
       </c>
       <c r="H163">
-        <v>0.93548387096774199</v>
+        <v>0.94470046082949299</v>
       </c>
       <c r="I163">
-        <v>0.87558533404810701</v>
+        <v>0.88480202177492995</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:J163">
-    <sortCondition descending="1" ref="I2"/>
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5674,10 +6151,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5687,7 +6164,7 @@
     <col min="8" max="8" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="45">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="45">
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
@@ -5713,7 +6190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5741,8 +6218,11 @@
       <c r="I2">
         <v>0.91705069124423999</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5770,8 +6250,11 @@
       <c r="I3">
         <v>0.91705069124423999</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5799,8 +6282,11 @@
       <c r="I4">
         <v>0.91705069124423999</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5828,8 +6314,11 @@
       <c r="I5">
         <v>0.91705069124423999</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5857,8 +6346,11 @@
       <c r="I6">
         <v>0.91705069124423999</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5886,8 +6378,11 @@
       <c r="I7">
         <v>0.91705069124423999</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5916,7 +6411,7 @@
         <v>0.90787266206302197</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5945,7 +6440,7 @@
         <v>0.90787266206302197</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5974,7 +6469,7 @@
         <v>0.90787266206302197</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6003,7 +6498,7 @@
         <v>0.90787266206302197</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6032,7 +6527,7 @@
         <v>0.90787266206302197</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6061,7 +6556,7 @@
         <v>0.90787266206302197</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6090,7 +6585,7 @@
         <v>0.90783410138248799</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6119,7 +6614,7 @@
         <v>0.90783410138248799</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6239,4 +6734,2904 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="30">
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2800</v>
+      </c>
+      <c r="C2">
+        <v>0.3</v>
+      </c>
+      <c r="D2">
+        <v>0.94268476621417796</v>
+      </c>
+      <c r="E2">
+        <v>0.39862128014228299</v>
+      </c>
+      <c r="F2">
+        <v>0.953125</v>
+      </c>
+      <c r="G2">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="H2">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="I2">
+        <v>0.85198411871737501</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2800</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.94268476621417796</v>
+      </c>
+      <c r="E3">
+        <v>0.398621280142334</v>
+      </c>
+      <c r="F3">
+        <v>0.953125</v>
+      </c>
+      <c r="G3">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="H3">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="I3">
+        <v>0.85198411871737501</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2800</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0.94268476621417796</v>
+      </c>
+      <c r="E4">
+        <v>0.398621280142398</v>
+      </c>
+      <c r="F4">
+        <v>0.953125</v>
+      </c>
+      <c r="G4">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="H4">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="I4">
+        <v>0.85198411871737501</v>
+      </c>
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2800</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0.94268476621417796</v>
+      </c>
+      <c r="E5">
+        <v>0.39862128014202802</v>
+      </c>
+      <c r="F5">
+        <v>0.953125</v>
+      </c>
+      <c r="G5">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="H5">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="I5">
+        <v>0.85198411871737501</v>
+      </c>
+      <c r="J5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2800</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>0.94268476621417796</v>
+      </c>
+      <c r="E6">
+        <v>0.398621280143441</v>
+      </c>
+      <c r="F6">
+        <v>0.953125</v>
+      </c>
+      <c r="G6">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="H6">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="I6">
+        <v>0.85198411871737501</v>
+      </c>
+      <c r="J6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2800</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>0.94268476621417796</v>
+      </c>
+      <c r="E7">
+        <v>0.39862128013843301</v>
+      </c>
+      <c r="F7">
+        <v>0.953125</v>
+      </c>
+      <c r="G7">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="H7">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="I7">
+        <v>0.85198411871737501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2650</v>
+      </c>
+      <c r="C8">
+        <v>0.3</v>
+      </c>
+      <c r="D8">
+        <v>0.93665158371040702</v>
+      </c>
+      <c r="E8">
+        <v>0.53928002602224501</v>
+      </c>
+      <c r="F8">
+        <v>0.9375</v>
+      </c>
+      <c r="G8">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="H8">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="I8">
+        <v>0.79940221476744</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2650</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.93665158371040702</v>
+      </c>
+      <c r="E9">
+        <v>0.53928002602209002</v>
+      </c>
+      <c r="F9">
+        <v>0.9375</v>
+      </c>
+      <c r="G9">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="H9">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="I9">
+        <v>0.79940221476744</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2650</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>0.93665158371040702</v>
+      </c>
+      <c r="E10">
+        <v>0.53928002602203795</v>
+      </c>
+      <c r="F10">
+        <v>0.9375</v>
+      </c>
+      <c r="G10">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="H10">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="I10">
+        <v>0.79940221476744</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2650</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0.93665158371040702</v>
+      </c>
+      <c r="E11">
+        <v>0.539280026021282</v>
+      </c>
+      <c r="F11">
+        <v>0.9375</v>
+      </c>
+      <c r="G11">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="H11">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="I11">
+        <v>0.79940221476744</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2650</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>0.93665158371040702</v>
+      </c>
+      <c r="E12">
+        <v>0.53928002602043701</v>
+      </c>
+      <c r="F12">
+        <v>0.9375</v>
+      </c>
+      <c r="G12">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="H12">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="I12">
+        <v>0.79940221476744</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2650</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>0.93665158371040702</v>
+      </c>
+      <c r="E13">
+        <v>0.539280026001415</v>
+      </c>
+      <c r="F13">
+        <v>0.9375</v>
+      </c>
+      <c r="G13">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="H13">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="I13">
+        <v>0.79940221476744</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2500</v>
+      </c>
+      <c r="C14">
+        <v>0.3</v>
+      </c>
+      <c r="D14">
+        <v>0.94268476621417796</v>
+      </c>
+      <c r="E14">
+        <v>0.49514720618233599</v>
+      </c>
+      <c r="F14">
+        <v>0.9375</v>
+      </c>
+      <c r="G14">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="H14">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="I14">
+        <v>0.79940221476744</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2500</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.94268476621417796</v>
+      </c>
+      <c r="E15">
+        <v>0.495147206182255</v>
+      </c>
+      <c r="F15">
+        <v>0.9375</v>
+      </c>
+      <c r="G15">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="H15">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="I15">
+        <v>0.79940221476744</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2500</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>0.94268476621417796</v>
+      </c>
+      <c r="E16">
+        <v>0.49514720618206798</v>
+      </c>
+      <c r="F16">
+        <v>0.9375</v>
+      </c>
+      <c r="G16">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="H16">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="I16">
+        <v>0.79940221476744</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2500</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>0.94268476621417796</v>
+      </c>
+      <c r="E17">
+        <v>0.49514720618274599</v>
+      </c>
+      <c r="F17">
+        <v>0.9375</v>
+      </c>
+      <c r="G17">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="H17">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="I17">
+        <v>0.79940221476744</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2500</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>0.94268476621417796</v>
+      </c>
+      <c r="E18">
+        <v>0.49514720617658098</v>
+      </c>
+      <c r="F18">
+        <v>0.9375</v>
+      </c>
+      <c r="G18">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="H18">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="I18">
+        <v>0.79940221476744</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2500</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>0.94268476621417796</v>
+      </c>
+      <c r="E19">
+        <v>0.49514720618688901</v>
+      </c>
+      <c r="F19">
+        <v>0.9375</v>
+      </c>
+      <c r="G19">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="H19">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="I19">
+        <v>0.79940221476744</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:M120"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>0.890625</v>
+      </c>
+      <c r="C5">
+        <v>0.9375</v>
+      </c>
+      <c r="D5">
+        <v>0.9375</v>
+      </c>
+      <c r="E5">
+        <v>0.9375</v>
+      </c>
+      <c r="F5">
+        <v>0.9375</v>
+      </c>
+      <c r="G5">
+        <v>0.921875</v>
+      </c>
+      <c r="H5">
+        <v>0.875</v>
+      </c>
+      <c r="I5">
+        <v>0.875</v>
+      </c>
+      <c r="J5">
+        <v>0.875</v>
+      </c>
+      <c r="L5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="C6">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="D6">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="E6">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="F6">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="G6">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="H6">
+        <v>0.46153846153846201</v>
+      </c>
+      <c r="I6">
+        <v>0.38461538461538503</v>
+      </c>
+      <c r="J6">
+        <v>0.38461538461538503</v>
+      </c>
+      <c r="L6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>0.90196078431372595</v>
+      </c>
+      <c r="C7">
+        <v>0.96078431372549</v>
+      </c>
+      <c r="D7">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="E7">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="F7">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="G7">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="H7">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M7" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>0.69509522046285599</v>
+      </c>
+      <c r="C8">
+        <v>0.80693815987933604</v>
+      </c>
+      <c r="D8">
+        <v>0.79940221476744</v>
+      </c>
+      <c r="E8">
+        <v>0.79940221476744</v>
+      </c>
+      <c r="F8">
+        <v>0.79940221476744</v>
+      </c>
+      <c r="G8">
+        <v>0.74538597102194304</v>
+      </c>
+      <c r="H8">
+        <v>0.56967138923080396</v>
+      </c>
+      <c r="I8">
+        <v>0.57659703955489405</v>
+      </c>
+      <c r="J8">
+        <v>0.57659703955489405</v>
+      </c>
+      <c r="L8">
+        <v>3.4</v>
+      </c>
+      <c r="M8" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.890625</v>
+      </c>
+      <c r="C13">
+        <v>0.9375</v>
+      </c>
+      <c r="D13">
+        <v>0.9375</v>
+      </c>
+      <c r="E13">
+        <v>0.9375</v>
+      </c>
+      <c r="F13">
+        <v>0.9375</v>
+      </c>
+      <c r="G13">
+        <v>0.921875</v>
+      </c>
+      <c r="H13">
+        <v>0.875</v>
+      </c>
+      <c r="I13">
+        <v>0.875</v>
+      </c>
+      <c r="J13">
+        <v>0.875</v>
+      </c>
+      <c r="L13">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="C14">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="D14">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="E14">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="F14">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="G14">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="H14">
+        <v>0.46153846153846201</v>
+      </c>
+      <c r="I14">
+        <v>0.38461538461538503</v>
+      </c>
+      <c r="J14">
+        <v>0.38461538461538503</v>
+      </c>
+      <c r="L14">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M14" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.90196078431372595</v>
+      </c>
+      <c r="C15">
+        <v>0.96078431372549</v>
+      </c>
+      <c r="D15">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="E15">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="F15">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="G15">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="H15">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M15" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>0.69509522046285599</v>
+      </c>
+      <c r="C16">
+        <v>0.80693815987933604</v>
+      </c>
+      <c r="D16">
+        <v>0.79940221476744</v>
+      </c>
+      <c r="E16">
+        <v>0.79940221476744</v>
+      </c>
+      <c r="F16">
+        <v>0.79940221476744</v>
+      </c>
+      <c r="G16">
+        <v>0.74538597102194304</v>
+      </c>
+      <c r="H16">
+        <v>0.56967138923080396</v>
+      </c>
+      <c r="I16">
+        <v>0.57659703955489405</v>
+      </c>
+      <c r="J16">
+        <v>0.57659703955489405</v>
+      </c>
+      <c r="L16">
+        <v>3.4</v>
+      </c>
+      <c r="M16" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="2" customFormat="1">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0.421875</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0.27450980392156898</v>
+      </c>
+      <c r="E20">
+        <v>0.26715641302354698</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>0.01</v>
+      </c>
+      <c r="B21">
+        <v>0.421875</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0.27450980392156898</v>
+      </c>
+      <c r="E21">
+        <v>0.26715641302354698</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>0.02</v>
+      </c>
+      <c r="B22">
+        <v>0.4375</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0.29411764705882398</v>
+      </c>
+      <c r="E22">
+        <v>0.27934067459822998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>0.03</v>
+      </c>
+      <c r="B23">
+        <v>0.453125</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0.31372549019607798</v>
+      </c>
+      <c r="E23">
+        <v>0.291491544065069</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>0.04</v>
+      </c>
+      <c r="B24">
+        <v>0.453125</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0.31372549019607798</v>
+      </c>
+      <c r="E24">
+        <v>0.291491544065069</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>0.05</v>
+      </c>
+      <c r="B25">
+        <v>0.46875</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="E25">
+        <v>0.303642193313584</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>0.06</v>
+      </c>
+      <c r="B26">
+        <v>0.5</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0.37254901960784298</v>
+      </c>
+      <c r="E26">
+        <v>0.32806290910609598</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B27">
+        <v>0.515625</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0.39215686274509798</v>
+      </c>
+      <c r="E27">
+        <v>0.34038878893000202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>0.08</v>
+      </c>
+      <c r="B28">
+        <v>0.53125</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0.41176470588235298</v>
+      </c>
+      <c r="E28">
+        <v>0.35282715896592598</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>0.09</v>
+      </c>
+      <c r="B29">
+        <v>0.5625</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0.45098039215686297</v>
+      </c>
+      <c r="E29">
+        <v>0.37814518756557702</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>0.1</v>
+      </c>
+      <c r="B30">
+        <v>0.578125</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0.47058823529411797</v>
+      </c>
+      <c r="E30">
+        <v>0.391076944437521</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>0.11</v>
+      </c>
+      <c r="B31">
+        <v>0.59375</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0.49019607843137297</v>
+      </c>
+      <c r="E31">
+        <v>0.40422604172722199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>0.12</v>
+      </c>
+      <c r="B32">
+        <v>0.59375</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0.49019607843137297</v>
+      </c>
+      <c r="E32">
+        <v>0.40422604172722199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>0.13</v>
+      </c>
+      <c r="B33">
+        <v>0.625</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0.52941176470588203</v>
+      </c>
+      <c r="E33">
+        <v>0.43128823187135001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B34">
+        <v>0.625</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0.52941176470588203</v>
+      </c>
+      <c r="E34">
+        <v>0.43128823187135001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>0.15</v>
+      </c>
+      <c r="B35">
+        <v>0.671875</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0.58823529411764697</v>
+      </c>
+      <c r="E35">
+        <v>0.47425045578226799</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>0.16</v>
+      </c>
+      <c r="B36">
+        <v>0.65625</v>
+      </c>
+      <c r="C36">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="D36">
+        <v>0.58823529411764697</v>
+      </c>
+      <c r="E36">
+        <v>0.411628197349662</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>0.17</v>
+      </c>
+      <c r="B37">
+        <v>0.65625</v>
+      </c>
+      <c r="C37">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="D37">
+        <v>0.58823529411764697</v>
+      </c>
+      <c r="E37">
+        <v>0.411628197349662</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>0.18</v>
+      </c>
+      <c r="B38">
+        <v>0.703125</v>
+      </c>
+      <c r="C38">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="D38">
+        <v>0.64705882352941202</v>
+      </c>
+      <c r="E38">
+        <v>0.45965813406589001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>0.19</v>
+      </c>
+      <c r="B39">
+        <v>0.71875</v>
+      </c>
+      <c r="C39">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="D39">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="E39">
+        <v>0.47663614360317902</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>0.2</v>
+      </c>
+      <c r="B40">
+        <v>0.71875</v>
+      </c>
+      <c r="C40">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="D40">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="E40">
+        <v>0.47663614360317902</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>0.21</v>
+      </c>
+      <c r="B41">
+        <v>0.734375</v>
+      </c>
+      <c r="C41">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="D41">
+        <v>0.68627450980392202</v>
+      </c>
+      <c r="E41">
+        <v>0.49419043434758603</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>0.22</v>
+      </c>
+      <c r="B42">
+        <v>0.765625</v>
+      </c>
+      <c r="C42">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="D42">
+        <v>0.72549019607843102</v>
+      </c>
+      <c r="E42">
+        <v>0.53129192974498296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>0.23</v>
+      </c>
+      <c r="B43">
+        <v>0.796875</v>
+      </c>
+      <c r="C43">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="D43">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="E43">
+        <v>0.57157399571637701</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>0.24</v>
+      </c>
+      <c r="B44">
+        <v>0.78125</v>
+      </c>
+      <c r="C44">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="D44">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="E44">
+        <v>0.51220334770588205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>0.25</v>
+      </c>
+      <c r="B45">
+        <v>0.78125</v>
+      </c>
+      <c r="C45">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="D45">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="E45">
+        <v>0.51220334770588205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>0.26</v>
+      </c>
+      <c r="B46">
+        <v>0.828125</v>
+      </c>
+      <c r="C46">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="D46">
+        <v>0.82352941176470595</v>
+      </c>
+      <c r="E46">
+        <v>0.58127931648046505</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>0.27</v>
+      </c>
+      <c r="B47">
+        <v>0.828125</v>
+      </c>
+      <c r="C47">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="D47">
+        <v>0.82352941176470595</v>
+      </c>
+      <c r="E47">
+        <v>0.58127931648046505</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="B48">
+        <v>0.859375</v>
+      </c>
+      <c r="C48">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="D48">
+        <v>0.86274509803921595</v>
+      </c>
+      <c r="E48">
+        <v>0.63434559053053297</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="B49">
+        <v>0.875</v>
+      </c>
+      <c r="C49">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="D49">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="E49">
+        <v>0.66361619624642898</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>0.3</v>
+      </c>
+      <c r="B50">
+        <v>0.890625</v>
+      </c>
+      <c r="C50">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="D50">
+        <v>0.90196078431372595</v>
+      </c>
+      <c r="E50">
+        <v>0.69509522046285599</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>0.31</v>
+      </c>
+      <c r="B51">
+        <v>0.90625</v>
+      </c>
+      <c r="C51">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="D51">
+        <v>0.92156862745098</v>
+      </c>
+      <c r="E51">
+        <v>0.72915078651537901</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>0.32</v>
+      </c>
+      <c r="B52">
+        <v>0.90625</v>
+      </c>
+      <c r="C52">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="D52">
+        <v>0.92156862745098</v>
+      </c>
+      <c r="E52">
+        <v>0.72915078651537901</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>0.33</v>
+      </c>
+      <c r="B53">
+        <v>0.9375</v>
+      </c>
+      <c r="C53">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="D53">
+        <v>0.96078431372549</v>
+      </c>
+      <c r="E53">
+        <v>0.80693815987933604</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>0.34</v>
+      </c>
+      <c r="B54">
+        <v>0.9375</v>
+      </c>
+      <c r="C54">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="D54">
+        <v>0.96078431372549</v>
+      </c>
+      <c r="E54">
+        <v>0.80693815987933604</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>0.35</v>
+      </c>
+      <c r="B55">
+        <v>0.9375</v>
+      </c>
+      <c r="C55">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="D55">
+        <v>0.96078431372549</v>
+      </c>
+      <c r="E55">
+        <v>0.80693815987933604</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>0.36</v>
+      </c>
+      <c r="B56">
+        <v>0.9375</v>
+      </c>
+      <c r="C56">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="D56">
+        <v>0.96078431372549</v>
+      </c>
+      <c r="E56">
+        <v>0.80693815987933604</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>0.37</v>
+      </c>
+      <c r="B57">
+        <v>0.9375</v>
+      </c>
+      <c r="C57">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="D57">
+        <v>0.96078431372549</v>
+      </c>
+      <c r="E57">
+        <v>0.80693815987933604</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>0.38</v>
+      </c>
+      <c r="B58">
+        <v>0.9375</v>
+      </c>
+      <c r="C58">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="D58">
+        <v>0.96078431372549</v>
+      </c>
+      <c r="E58">
+        <v>0.80693815987933604</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>0.39</v>
+      </c>
+      <c r="B59">
+        <v>0.953125</v>
+      </c>
+      <c r="C59">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="D59">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="E59">
+        <v>0.85198411871737501</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>0.4</v>
+      </c>
+      <c r="B60">
+        <v>0.9375</v>
+      </c>
+      <c r="C60">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="D60">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="E60">
+        <v>0.79940221476744</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>0.41</v>
+      </c>
+      <c r="B61">
+        <v>0.9375</v>
+      </c>
+      <c r="C61">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="D61">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="E61">
+        <v>0.79940221476744</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>0.42</v>
+      </c>
+      <c r="B62">
+        <v>0.9375</v>
+      </c>
+      <c r="C62">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="D62">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="E62">
+        <v>0.79940221476744</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>0.43</v>
+      </c>
+      <c r="B63">
+        <v>0.9375</v>
+      </c>
+      <c r="C63">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="D63">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="E63">
+        <v>0.79940221476744</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>0.44</v>
+      </c>
+      <c r="B64">
+        <v>0.9375</v>
+      </c>
+      <c r="C64">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="D64">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="E64">
+        <v>0.79940221476744</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>0.45</v>
+      </c>
+      <c r="B65">
+        <v>0.9375</v>
+      </c>
+      <c r="C65">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="D65">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="E65">
+        <v>0.79940221476744</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>0.46</v>
+      </c>
+      <c r="B66">
+        <v>0.9375</v>
+      </c>
+      <c r="C66">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="D66">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="E66">
+        <v>0.79940221476744</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>0.47</v>
+      </c>
+      <c r="B67">
+        <v>0.9375</v>
+      </c>
+      <c r="C67">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="D67">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="E67">
+        <v>0.79940221476744</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>0.48</v>
+      </c>
+      <c r="B68">
+        <v>0.9375</v>
+      </c>
+      <c r="C68">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="D68">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="E68">
+        <v>0.79940221476744</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>0.49</v>
+      </c>
+      <c r="B69">
+        <v>0.9375</v>
+      </c>
+      <c r="C69">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="D69">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="E69">
+        <v>0.79940221476744</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>0.5</v>
+      </c>
+      <c r="B70">
+        <v>0.9375</v>
+      </c>
+      <c r="C70">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="D70">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="E70">
+        <v>0.79940221476744</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>0.51</v>
+      </c>
+      <c r="B71">
+        <v>0.9375</v>
+      </c>
+      <c r="C71">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="D71">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="E71">
+        <v>0.79940221476744</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>0.52</v>
+      </c>
+      <c r="B72">
+        <v>0.9375</v>
+      </c>
+      <c r="C72">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="D72">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="E72">
+        <v>0.79940221476744</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>0.53</v>
+      </c>
+      <c r="B73">
+        <v>0.9375</v>
+      </c>
+      <c r="C73">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="D73">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="E73">
+        <v>0.79940221476744</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>0.54</v>
+      </c>
+      <c r="B74">
+        <v>0.921875</v>
+      </c>
+      <c r="C74">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="D74">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="E74">
+        <v>0.74538597102194304</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B75">
+        <v>0.921875</v>
+      </c>
+      <c r="C75">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="D75">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="E75">
+        <v>0.74538597102194304</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="B76">
+        <v>0.921875</v>
+      </c>
+      <c r="C76">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="D76">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="E76">
+        <v>0.74538597102194304</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="B77">
+        <v>0.890625</v>
+      </c>
+      <c r="C77">
+        <v>0.53846153846153799</v>
+      </c>
+      <c r="D77">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="E77">
+        <v>0.63119372307761001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="B78">
+        <v>0.890625</v>
+      </c>
+      <c r="C78">
+        <v>0.53846153846153799</v>
+      </c>
+      <c r="D78">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="E78">
+        <v>0.63119372307761001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>0.59</v>
+      </c>
+      <c r="B79">
+        <v>0.890625</v>
+      </c>
+      <c r="C79">
+        <v>0.53846153846153799</v>
+      </c>
+      <c r="D79">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="E79">
+        <v>0.63119372307761001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>0.6</v>
+      </c>
+      <c r="B80">
+        <v>0.875</v>
+      </c>
+      <c r="C80">
+        <v>0.46153846153846201</v>
+      </c>
+      <c r="D80">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="E80">
+        <v>0.56967138923080396</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>0.61</v>
+      </c>
+      <c r="B81">
+        <v>0.890625</v>
+      </c>
+      <c r="C81">
+        <v>0.46153846153846201</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>0.63705223001460298</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>0.62</v>
+      </c>
+      <c r="B82">
+        <v>0.875</v>
+      </c>
+      <c r="C82">
+        <v>0.38461538461538503</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>0.57659703955489405</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>0.63</v>
+      </c>
+      <c r="B83">
+        <v>0.875</v>
+      </c>
+      <c r="C83">
+        <v>0.38461538461538503</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>0.57659703955489405</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>0.64</v>
+      </c>
+      <c r="B84">
+        <v>0.875</v>
+      </c>
+      <c r="C84">
+        <v>0.38461538461538503</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>0.57659703955489405</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>0.65</v>
+      </c>
+      <c r="B85">
+        <v>0.875</v>
+      </c>
+      <c r="C85">
+        <v>0.38461538461538503</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>0.57659703955489405</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>0.66</v>
+      </c>
+      <c r="B86">
+        <v>0.875</v>
+      </c>
+      <c r="C86">
+        <v>0.38461538461538503</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>0.57659703955489405</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>0.67</v>
+      </c>
+      <c r="B87">
+        <v>0.875</v>
+      </c>
+      <c r="C87">
+        <v>0.38461538461538503</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>0.57659703955489405</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>0.68</v>
+      </c>
+      <c r="B88">
+        <v>0.875</v>
+      </c>
+      <c r="C88">
+        <v>0.38461538461538503</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>0.57659703955489405</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>0.69</v>
+      </c>
+      <c r="B89">
+        <v>0.875</v>
+      </c>
+      <c r="C89">
+        <v>0.38461538461538503</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>0.57659703955489405</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>0.7</v>
+      </c>
+      <c r="B90">
+        <v>0.875</v>
+      </c>
+      <c r="C90">
+        <v>0.38461538461538503</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>0.57659703955489405</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>0.71</v>
+      </c>
+      <c r="B91">
+        <v>0.875</v>
+      </c>
+      <c r="C91">
+        <v>0.38461538461538503</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>0.57659703955489405</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>0.72</v>
+      </c>
+      <c r="B92">
+        <v>0.875</v>
+      </c>
+      <c r="C92">
+        <v>0.38461538461538503</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>0.57659703955489405</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>0.73</v>
+      </c>
+      <c r="B93">
+        <v>0.875</v>
+      </c>
+      <c r="C93">
+        <v>0.38461538461538503</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>0.57659703955489405</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>0.74</v>
+      </c>
+      <c r="B94">
+        <v>0.875</v>
+      </c>
+      <c r="C94">
+        <v>0.38461538461538503</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>0.57659703955489405</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>0.75</v>
+      </c>
+      <c r="B95">
+        <v>0.875</v>
+      </c>
+      <c r="C95">
+        <v>0.38461538461538503</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>0.57659703955489405</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>0.76</v>
+      </c>
+      <c r="B96">
+        <v>0.875</v>
+      </c>
+      <c r="C96">
+        <v>0.38461538461538503</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>0.57659703955489405</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>0.77</v>
+      </c>
+      <c r="B97">
+        <v>0.875</v>
+      </c>
+      <c r="C97">
+        <v>0.38461538461538503</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>0.57659703955489405</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>0.78</v>
+      </c>
+      <c r="B98">
+        <v>0.875</v>
+      </c>
+      <c r="C98">
+        <v>0.38461538461538503</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>0.57659703955489405</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>0.79</v>
+      </c>
+      <c r="B99">
+        <v>0.875</v>
+      </c>
+      <c r="C99">
+        <v>0.38461538461538503</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>0.57659703955489405</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>0.8</v>
+      </c>
+      <c r="B100">
+        <v>0.875</v>
+      </c>
+      <c r="C100">
+        <v>0.38461538461538503</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>0.57659703955489405</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>0.81</v>
+      </c>
+      <c r="B101">
+        <v>0.875</v>
+      </c>
+      <c r="C101">
+        <v>0.38461538461538503</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>0.57659703955489405</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>0.82</v>
+      </c>
+      <c r="B102">
+        <v>0.859375</v>
+      </c>
+      <c r="C102">
+        <v>0.30769230769230799</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>0.51140831195675895</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>0.83</v>
+      </c>
+      <c r="B103">
+        <v>0.859375</v>
+      </c>
+      <c r="C103">
+        <v>0.30769230769230799</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>0.51140831195675895</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>0.84</v>
+      </c>
+      <c r="B104">
+        <v>0.859375</v>
+      </c>
+      <c r="C104">
+        <v>0.30769230769230799</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>0.51140831195675895</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>0.85</v>
+      </c>
+      <c r="B105">
+        <v>0.859375</v>
+      </c>
+      <c r="C105">
+        <v>0.30769230769230799</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>0.51140831195675895</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>0.86</v>
+      </c>
+      <c r="B106">
+        <v>0.859375</v>
+      </c>
+      <c r="C106">
+        <v>0.30769230769230799</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>0.51140831195675895</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>0.87</v>
+      </c>
+      <c r="B107">
+        <v>0.859375</v>
+      </c>
+      <c r="C107">
+        <v>0.30769230769230799</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>0.51140831195675895</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>0.88</v>
+      </c>
+      <c r="B108">
+        <v>0.859375</v>
+      </c>
+      <c r="C108">
+        <v>0.30769230769230799</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>0.51140831195675895</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <v>0.89</v>
+      </c>
+      <c r="B109">
+        <v>0.859375</v>
+      </c>
+      <c r="C109">
+        <v>0.30769230769230799</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>0.51140831195675895</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>0.9</v>
+      </c>
+      <c r="B110">
+        <v>0.859375</v>
+      </c>
+      <c r="C110">
+        <v>0.30769230769230799</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>0.51140831195675895</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>0.91</v>
+      </c>
+      <c r="B111">
+        <v>0.859375</v>
+      </c>
+      <c r="C111">
+        <v>0.30769230769230799</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>0.51140831195675895</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>0.92</v>
+      </c>
+      <c r="B112">
+        <v>0.859375</v>
+      </c>
+      <c r="C112">
+        <v>0.30769230769230799</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>0.51140831195675895</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>0.93</v>
+      </c>
+      <c r="B113">
+        <v>0.859375</v>
+      </c>
+      <c r="C113">
+        <v>0.30769230769230799</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>0.51140831195675895</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>0.94</v>
+      </c>
+      <c r="B114">
+        <v>0.84375</v>
+      </c>
+      <c r="C114">
+        <v>0.230769230769231</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>0.43924732137106098</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>0.95</v>
+      </c>
+      <c r="B115">
+        <v>0.8125</v>
+      </c>
+      <c r="C115">
+        <v>7.69230769230769E-2</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>0.24954170447254401</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>0.96</v>
+      </c>
+      <c r="B116">
+        <v>0.8125</v>
+      </c>
+      <c r="C116">
+        <v>7.69230769230769E-2</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>0.24954170447254401</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>0.97</v>
+      </c>
+      <c r="B117">
+        <v>0.8125</v>
+      </c>
+      <c r="C117">
+        <v>7.69230769230769E-2</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>0.24954170447254401</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>0.98</v>
+      </c>
+      <c r="B118">
+        <v>0.8125</v>
+      </c>
+      <c r="C118">
+        <v>7.69230769230769E-2</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>0.24954170447254401</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <v>0.99</v>
+      </c>
+      <c r="B119">
+        <v>0.8125</v>
+      </c>
+      <c r="C119">
+        <v>7.69230769230769E-2</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>0.24954170447254401</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120">
+        <v>0.8125</v>
+      </c>
+      <c r="C120">
+        <v>7.69230769230769E-2</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>0.24954170447254401</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="B2">
+        <v>0.890625</v>
+      </c>
+      <c r="C2">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="D2">
+        <v>0.90196078431372595</v>
+      </c>
+      <c r="E2">
+        <v>0.69509522046285599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="B3">
+        <v>0.9375</v>
+      </c>
+      <c r="C3">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="D3">
+        <v>0.96078431372549</v>
+      </c>
+      <c r="E3">
+        <v>0.80693815987933604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="B4">
+        <v>0.9375</v>
+      </c>
+      <c r="C4">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="D4">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="E4">
+        <v>0.79940221476744</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="B5">
+        <v>0.9375</v>
+      </c>
+      <c r="C5">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="D5">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="E5">
+        <v>0.79940221476744</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B6">
+        <v>0.9375</v>
+      </c>
+      <c r="C6">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="D6">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="E6">
+        <v>0.79940221476744</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B7">
+        <v>0.921875</v>
+      </c>
+      <c r="C7">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="D7">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="E7">
+        <v>0.74538597102194304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="B8">
+        <v>0.875</v>
+      </c>
+      <c r="C8">
+        <v>0.46153846153846201</v>
+      </c>
+      <c r="D8">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="E8">
+        <v>0.56967138923080396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="B9">
+        <v>0.875</v>
+      </c>
+      <c r="C9">
+        <v>0.38461538461538503</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0.57659703955489405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="B10">
+        <v>0.875</v>
+      </c>
+      <c r="C10">
+        <v>0.38461538461538503</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0.57659703955489405</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Code/R/PerfSearch_Regression_WEKA_SMOTE217.xlsx
+++ b/Code/R/PerfSearch_Regression_WEKA_SMOTE217.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
   </bookViews>
   <sheets>
-    <sheet name="TenfoldCV" sheetId="1" r:id="rId1"/>
-    <sheet name="Jackknife" sheetId="2" r:id="rId2"/>
-    <sheet name="IndependentTest" sheetId="3" r:id="rId3"/>
-    <sheet name="ThresholdTuning" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
+    <sheet name="TenfoldCV_Coarse" sheetId="6" r:id="rId1"/>
+    <sheet name="TenfoldCV" sheetId="1" r:id="rId2"/>
+    <sheet name="Jackknife" sheetId="2" r:id="rId3"/>
+    <sheet name="IndependentTest" sheetId="3" r:id="rId4"/>
+    <sheet name="ThresholdTuning" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="17">
   <si>
     <t>Acc
 (All classes)</t>
@@ -69,6 +70,9 @@
   </si>
   <si>
     <t>2800/1</t>
+  </si>
+  <si>
+    <t>AUCPR</t>
   </si>
 </sst>
 </file>
@@ -628,6 +632,191 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>TenfoldCV_Coarse!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUCROC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>TenfoldCV_Coarse!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>TenfoldCV_Coarse!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.73494871413705998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74454755887787005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95147486674170101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95355603219435603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95107137548047205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TenfoldCV_Coarse!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUCPR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>TenfoldCV_Coarse!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>TenfoldCV_Coarse!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.68455403789890601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68035852643988903</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94721085088768597</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94936438810759705</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94754727533991501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="85788928"/>
+        <c:axId val="85794816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="85788928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85794816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="85794816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85788928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>Sheet3!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -987,23 +1176,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="124499840"/>
-        <c:axId val="124497920"/>
+        <c:axId val="77852032"/>
+        <c:axId val="78125312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="124499840"/>
+        <c:axId val="77852032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124497920"/>
+        <c:crossAx val="78125312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="124497920"/>
+        <c:axId val="78125312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1011,7 +1200,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124499840"/>
+        <c:crossAx val="77852032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1024,13 +1213,48 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1350,6 +1574,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3500</v>
+      </c>
+      <c r="C2">
+        <v>0.73494871413705998</v>
+      </c>
+      <c r="D2">
+        <v>0.68455403789890601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3000</v>
+      </c>
+      <c r="C3">
+        <v>0.74454755887787005</v>
+      </c>
+      <c r="D3">
+        <v>0.68035852643988903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2500</v>
+      </c>
+      <c r="C4">
+        <v>0.95147486674170101</v>
+      </c>
+      <c r="D4">
+        <v>0.94721085088768597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2000</v>
+      </c>
+      <c r="C5">
+        <v>0.95355603219435603</v>
+      </c>
+      <c r="D5">
+        <v>0.94936438810759705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1500</v>
+      </c>
+      <c r="C6">
+        <v>0.95107137548047205</v>
+      </c>
+      <c r="D6">
+        <v>0.94754727533991501</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6149,7 +6470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -6736,7 +7057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -7320,11 +7641,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -9449,7 +9770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E10"/>
   <sheetViews>

--- a/Code/R/PerfSearch_Regression_WEKA_SMOTE217.xlsx
+++ b/Code/R/PerfSearch_Regression_WEKA_SMOTE217.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
@@ -12,14 +12,14 @@
     <sheet name="Jackknife" sheetId="2" r:id="rId3"/>
     <sheet name="IndependentTest" sheetId="3" r:id="rId4"/>
     <sheet name="ThresholdTuning" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId6"/>
+    <sheet name="FeatureSpaceCmp" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="23">
   <si>
     <t>Acc
 (All classes)</t>
@@ -73,6 +73,24 @@
   </si>
   <si>
     <t>AUCPR</t>
+  </si>
+  <si>
+    <t>PSF</t>
+  </si>
+  <si>
+    <t>n-grams</t>
+  </si>
+  <si>
+    <t>nGDip</t>
+  </si>
+  <si>
+    <t>Combined</t>
+  </si>
+  <si>
+    <t>FeatureType</t>
+  </si>
+  <si>
+    <t>&lt;-- 10-fold</t>
   </si>
 </sst>
 </file>
@@ -761,23 +779,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="85788928"/>
-        <c:axId val="85794816"/>
+        <c:axId val="96194560"/>
+        <c:axId val="96196096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85788928"/>
+        <c:axId val="96194560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85794816"/>
+        <c:crossAx val="96196096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85794816"/>
+        <c:axId val="96196096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -785,7 +803,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85788928"/>
+        <c:crossAx val="96194560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -798,422 +816,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Accuracy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet3!$A$2:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet3!$B$2:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.890625</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.9375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.9375</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9375</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9375</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.921875</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.875</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sensitivity</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet3!$A$2:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet3!$C$2:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.84615384615384603</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.84615384615384603</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.76923076923076905</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.76923076923076905</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.76923076923076905</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.69230769230769196</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.46153846153846201</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.38461538461538503</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.38461538461538503</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Specificity</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet3!$A$2:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet3!$D$2:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.90196078431372595</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.96078431372549</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.98039215686274495</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.98039215686274495</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.98039215686274495</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.98039215686274495</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.98039215686274495</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MCC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet3!$A$2:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet3!$E$2:$E$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.69509522046285599</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.80693815987933604</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.79940221476744</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.79940221476744</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.79940221476744</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.74538597102194304</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.56967138923080396</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.57659703955489405</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.57659703955489405</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="77852032"/>
-        <c:axId val="78125312"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="77852032"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78125312"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="78125312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77852032"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1233,41 +836,6 @@
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1674,7 +1242,7 @@
   <dimension ref="A1:J163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6475,7 +6043,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7062,7 +6630,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7645,8 +7213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="L71" sqref="L71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8812,7 +8380,7 @@
         <v>0.79940221476744</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:12">
       <c r="A65">
         <v>0.45</v>
       </c>
@@ -8829,7 +8397,7 @@
         <v>0.79940221476744</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:12">
       <c r="A66">
         <v>0.46</v>
       </c>
@@ -8846,7 +8414,7 @@
         <v>0.79940221476744</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:12">
       <c r="A67">
         <v>0.47</v>
       </c>
@@ -8863,7 +8431,7 @@
         <v>0.79940221476744</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:12">
       <c r="A68">
         <v>0.48</v>
       </c>
@@ -8880,7 +8448,7 @@
         <v>0.79940221476744</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:12">
       <c r="A69">
         <v>0.49</v>
       </c>
@@ -8897,24 +8465,42 @@
         <v>0.79940221476744</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
-      <c r="A70">
+    <row r="70" spans="1:12" s="2" customFormat="1">
+      <c r="A70" s="2">
         <v>0.5</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="2">
         <v>0.9375</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="2">
         <v>0.76923076923076905</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="2">
         <v>0.98039215686274495</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="2">
         <v>0.79940221476744</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="G70" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0.94700459999999997</v>
+      </c>
+      <c r="I70" s="2">
+        <v>0.96774190000000004</v>
+      </c>
+      <c r="J70" s="2">
+        <v>0.92626730000000002</v>
+      </c>
+      <c r="K70" s="2">
+        <v>0.89477910000000005</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71">
         <v>0.51</v>
       </c>
@@ -8931,7 +8517,7 @@
         <v>0.79940221476744</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:12">
       <c r="A72">
         <v>0.52</v>
       </c>
@@ -8948,7 +8534,7 @@
         <v>0.79940221476744</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:12">
       <c r="A73">
         <v>0.53</v>
       </c>
@@ -8965,7 +8551,7 @@
         <v>0.79940221476744</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:12">
       <c r="A74">
         <v>0.54</v>
       </c>
@@ -8982,7 +8568,7 @@
         <v>0.74538597102194304</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:12">
       <c r="A75">
         <v>0.55000000000000004</v>
       </c>
@@ -8999,7 +8585,7 @@
         <v>0.74538597102194304</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:12">
       <c r="A76">
         <v>0.56000000000000005</v>
       </c>
@@ -9016,7 +8602,7 @@
         <v>0.74538597102194304</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:12">
       <c r="A77">
         <v>0.56999999999999995</v>
       </c>
@@ -9033,7 +8619,7 @@
         <v>0.63119372307761001</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:12">
       <c r="A78">
         <v>0.57999999999999996</v>
       </c>
@@ -9050,7 +8636,7 @@
         <v>0.63119372307761001</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:12">
       <c r="A79">
         <v>0.59</v>
       </c>
@@ -9067,7 +8653,7 @@
         <v>0.63119372307761001</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:12">
       <c r="A80">
         <v>0.6</v>
       </c>
@@ -9772,187 +9358,131 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2">
-        <v>0.3</v>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>17</v>
       </c>
       <c r="B2">
-        <v>0.890625</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>0.84615384615384603</v>
+        <v>0.65207373300000004</v>
       </c>
       <c r="D2">
-        <v>0.90196078431372595</v>
-      </c>
-      <c r="E2">
-        <v>0.69509522046285599</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2">
-        <v>0.35</v>
+        <v>0.30417653500000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>18</v>
       </c>
       <c r="B3">
-        <v>0.9375</v>
+        <v>694</v>
       </c>
       <c r="C3">
-        <v>0.84615384615384603</v>
+        <v>0.85944700500000004</v>
       </c>
       <c r="D3">
-        <v>0.96078431372549</v>
-      </c>
-      <c r="E3">
-        <v>0.80693815987933604</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
-        <v>0.4</v>
+        <v>0.72111025500000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>19</v>
       </c>
       <c r="B4">
-        <v>0.9375</v>
+        <v>1772</v>
       </c>
       <c r="C4">
-        <v>0.76923076923076905</v>
+        <v>0.93548387099999997</v>
       </c>
       <c r="D4">
-        <v>0.98039215686274495</v>
-      </c>
-      <c r="E4">
-        <v>0.79940221476744</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="B5">
-        <v>0.9375</v>
-      </c>
-      <c r="C5">
-        <v>0.76923076923076905</v>
-      </c>
-      <c r="D5">
-        <v>0.98039215686274495</v>
-      </c>
-      <c r="E5">
-        <v>0.79940221476744</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2">
-        <v>0.5</v>
+        <v>0.87130086500000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="2" customFormat="1">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2500</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.95391705100000002</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.90783410099999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>19</v>
       </c>
       <c r="B6">
-        <v>0.9375</v>
+        <v>2500</v>
       </c>
       <c r="C6">
-        <v>0.76923076923076905</v>
+        <v>0.94239631300000004</v>
       </c>
       <c r="D6">
-        <v>0.98039215686274495</v>
-      </c>
-      <c r="E6">
-        <v>0.79940221476744</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.88487719300000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>0.921875</v>
+        <v>2500</v>
       </c>
       <c r="C7">
-        <v>0.69230769230769196</v>
+        <v>0.93087557600000004</v>
       </c>
       <c r="D7">
-        <v>0.98039215686274495</v>
-      </c>
-      <c r="E7">
-        <v>0.74538597102194304</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2">
-        <v>0.6</v>
+        <v>0.86175115199999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>0.875</v>
+        <v>2500</v>
       </c>
       <c r="C8">
-        <v>0.46153846153846201</v>
+        <v>0.93087557600000004</v>
       </c>
       <c r="D8">
-        <v>0.98039215686274495</v>
-      </c>
-      <c r="E8">
-        <v>0.56967138923080396</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="B9">
-        <v>0.875</v>
-      </c>
-      <c r="C9">
-        <v>0.38461538461538503</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0.57659703955489405</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="B10">
-        <v>0.875</v>
-      </c>
-      <c r="C10">
-        <v>0.38461538461538503</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0.57659703955489405</v>
+        <v>0.86266763599999996</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Code/R/PerfSearch_Regression_WEKA_SMOTE217.xlsx
+++ b/Code/R/PerfSearch_Regression_WEKA_SMOTE217.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TenfoldCV_Coarse" sheetId="6" r:id="rId1"/>
@@ -14,6 +14,9 @@
     <sheet name="ThresholdTuning" sheetId="4" r:id="rId5"/>
     <sheet name="FeatureSpaceCmp" sheetId="8" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TenfoldCV!$A$1:$J$163</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -779,23 +782,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="96194560"/>
-        <c:axId val="96196096"/>
+        <c:axId val="115911296"/>
+        <c:axId val="115917184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96194560"/>
+        <c:axId val="115911296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96196096"/>
+        <c:crossAx val="115917184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96196096"/>
+        <c:axId val="115917184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -803,7 +806,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96194560"/>
+        <c:crossAx val="115911296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -816,7 +819,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1144,7 +1147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1241,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6030,6 +6033,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J163"/>
   <sortState ref="A2:J163">
     <sortCondition ref="A2"/>
   </sortState>
